--- a/frmedfit.xlsx
+++ b/frmedfit.xlsx
@@ -60,19 +60,19 @@
     <t xml:space="preserve">=~</t>
   </si>
   <si>
-    <t xml:space="preserve">security_freedom_4</t>
+    <t xml:space="preserve">security_freedom_5</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">security_freedom_5</t>
+    <t xml:space="preserve">security_freedom_6</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">security_freedom_6</t>
+    <t xml:space="preserve">security_freedom_7</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
@@ -393,15 +393,15 @@
     <t xml:space="preserve">est.std</t>
   </si>
   <si>
-    <t xml:space="preserve">cov.security_freedom_4</t>
-  </si>
-  <si>
     <t xml:space="preserve">cov.security_freedom_5</t>
   </si>
   <si>
     <t xml:space="preserve">cov.security_freedom_6</t>
   </si>
   <si>
+    <t xml:space="preserve">cov.security_freedom_7</t>
+  </si>
+  <si>
     <t xml:space="preserve">cov.nar5_end</t>
   </si>
   <si>
@@ -450,55 +450,55 @@
     <t xml:space="preserve">mean</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15088715786148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12721883140784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21597609709358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98520714043624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81656810049243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6597635847552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66568034896031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40236642210847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44674514107321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94378626403133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60059135432119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90828383753475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9319526503708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02070995056146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14792883755831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84615381426919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63609457772873</t>
+    <t xml:space="preserve">5.12721897422232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2159765317014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45858008941843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98520686561787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81656811990925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65976288335893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66568036687831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40236693572859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44674531647164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94378673490586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60059144587967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90828375092286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93195252973553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02070988379688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14792922607227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8461541711815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63609495251195</t>
   </si>
   <si>
     <t xml:space="preserve">0.5</t>
@@ -510,55 +510,55 @@
     <t xml:space="preserve">raw</t>
   </si>
   <si>
-    <t xml:space="preserve">0.000000416103021372294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000103503401405192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000234267362841933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0000000398445236804434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0000000531551522797713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000000271145731645106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00000012441246610706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000441796855099597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000421056967958577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00000071821718705678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000361655144054396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000186133891411089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0000000123510961458351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000108610142213195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000156524526229163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0000000318846593572175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0000000968274802559677</t>
+    <t xml:space="preserve">-0.0000000393110735075197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000000200340455336345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000000207761620352187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000234973846158226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0000000725719750960252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000430250541860744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000106494466578511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0000000718232655572137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000245658539732574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000247342662795802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000270096657040142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00000027274577707459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000132986365031229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000175374712974019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000000231989429888557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000000325027649683562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000000277955738869906</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -573,13 +573,13 @@
     <t xml:space="preserve">fmin</t>
   </si>
   <si>
-    <t xml:space="preserve">0.308052256459813</t>
+    <t xml:space="preserve">0.286369538969282</t>
   </si>
   <si>
     <t xml:space="preserve">chisq</t>
   </si>
   <si>
-    <t xml:space="preserve">208.243325366834</t>
+    <t xml:space="preserve">193.585808343235</t>
   </si>
   <si>
     <t xml:space="preserve">df</t>
@@ -588,13 +588,13 @@
     <t xml:space="preserve">123</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0000024847391840721</t>
+    <t xml:space="preserve">0.0000505441297495857</t>
   </si>
   <si>
     <t xml:space="preserve">baseline.chisq</t>
   </si>
   <si>
-    <t xml:space="preserve">2979.39155906498</t>
+    <t xml:space="preserve">3118.12629621277</t>
   </si>
   <si>
     <t xml:space="preserve">baseline.df</t>
@@ -609,25 +609,25 @@
     <t xml:space="preserve">cfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.96984022787167</t>
+    <t xml:space="preserve">0.976194670549652</t>
   </si>
   <si>
     <t xml:space="preserve">tli</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962484185889151</t>
+    <t xml:space="preserve">0.970388492634933</t>
   </si>
   <si>
     <t xml:space="preserve">cfi.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.969840227871673</t>
+    <t xml:space="preserve">0.976194670549654</t>
   </si>
   <si>
     <t xml:space="preserve">tli.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962484185889155</t>
+    <t xml:space="preserve">0.970388492634935</t>
   </si>
   <si>
     <t xml:space="preserve">nnfi</t>
@@ -636,25 +636,25 @@
     <t xml:space="preserve">rfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913057959922647</t>
+    <t xml:space="preserve">0.922773538887398</t>
   </si>
   <si>
     <t xml:space="preserve">nfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.930105418761344</t>
+    <t xml:space="preserve">0.93791598224281</t>
   </si>
   <si>
     <t xml:space="preserve">pnfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.747731807239512</t>
+    <t xml:space="preserve">0.754010887685396</t>
   </si>
   <si>
     <t xml:space="preserve">ifi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970156988772668</t>
+    <t xml:space="preserve">0.976433111207201</t>
   </si>
   <si>
     <t xml:space="preserve">rni</t>
@@ -669,25 +669,25 @@
     <t xml:space="preserve">logl</t>
   </si>
   <si>
-    <t xml:space="preserve">-9412.79863359171</t>
+    <t xml:space="preserve">-9333.30597853137</t>
   </si>
   <si>
     <t xml:space="preserve">unrestricted.logl</t>
   </si>
   <si>
-    <t xml:space="preserve">-9308.67697090829</t>
+    <t xml:space="preserve">-9236.51307435975</t>
   </si>
   <si>
     <t xml:space="preserve">aic</t>
   </si>
   <si>
-    <t xml:space="preserve">18953.5972671834</t>
+    <t xml:space="preserve">18794.6119570627</t>
   </si>
   <si>
     <t xml:space="preserve">bic</t>
   </si>
   <si>
-    <t xml:space="preserve">19198.2722044943</t>
+    <t xml:space="preserve">19039.2868943736</t>
   </si>
   <si>
     <t xml:space="preserve">ntotal</t>
@@ -699,25 +699,25 @@
     <t xml:space="preserve">bic2</t>
   </si>
   <si>
-    <t xml:space="preserve">18995.2543415682</t>
+    <t xml:space="preserve">18836.2690314475</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0452813416119439</t>
+    <t xml:space="preserve">0.0412047980960519</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.ci.lower</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0344299275796844</t>
+    <t xml:space="preserve">0.0297084767598071</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.ci.upper</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0557225008905311</t>
+    <t xml:space="preserve">0.0519995155994316</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.ci.level</t>
@@ -729,7 +729,7 @@
     <t xml:space="preserve">rmsea.pvalue</t>
   </si>
   <si>
-    <t xml:space="preserve">0.761409394049413</t>
+    <t xml:space="preserve">0.907219131220417</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.close.h0</t>
@@ -741,7 +741,7 @@
     <t xml:space="preserve">rmsea.notclose.pvalue</t>
   </si>
   <si>
-    <t xml:space="preserve">0.00000000243474962101757</t>
+    <t xml:space="preserve">0.0000000000592721663789144</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.notclose.h0</t>
@@ -753,49 +753,49 @@
     <t xml:space="preserve">rmsea.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0452813416119418</t>
+    <t xml:space="preserve">0.0412047980960507</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.ci.lower.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0344299275796822</t>
+    <t xml:space="preserve">0.0297084767598057</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.ci.upper.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0557225008905291</t>
+    <t xml:space="preserve">0.0519995155994304</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.pvalue.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.761409394049514</t>
+    <t xml:space="preserve">0.907219131220448</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.notclose.pvalue.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.00000000243474962101277</t>
+    <t xml:space="preserve">0.0000000000592721663788389</t>
   </si>
   <si>
     <t xml:space="preserve">rmr</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139583625182797</t>
+    <t xml:space="preserve">0.137095366721345</t>
   </si>
   <si>
     <t xml:space="preserve">rmr_nomean</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146746354173746</t>
+    <t xml:space="preserve">0.144130410813768</t>
   </si>
   <si>
     <t xml:space="preserve">srmr</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0503030906896315</t>
+    <t xml:space="preserve">0.0496115124272415</t>
   </si>
   <si>
     <t xml:space="preserve">srmr_bentler</t>
@@ -804,73 +804,73 @@
     <t xml:space="preserve">srmr_bentler_nomean</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0528843920818474</t>
+    <t xml:space="preserve">0.0521573255043866</t>
   </si>
   <si>
     <t xml:space="preserve">crmr</t>
   </si>
   <si>
-    <t xml:space="preserve">0.052883862682821</t>
+    <t xml:space="preserve">0.0521608422720444</t>
   </si>
   <si>
     <t xml:space="preserve">crmr_nomean</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0559081998157291</t>
+    <t xml:space="preserve">0.0551438311114446</t>
   </si>
   <si>
     <t xml:space="preserve">srmr_mplus</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0503069522993063</t>
+    <t xml:space="preserve">0.0496184715155338</t>
   </si>
   <si>
     <t xml:space="preserve">srmr_mplus_nomean</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0528854017578825</t>
+    <t xml:space="preserve">0.0521620676749087</t>
   </si>
   <si>
     <t xml:space="preserve">cn_05</t>
   </si>
   <si>
-    <t xml:space="preserve">244.277816468444</t>
+    <t xml:space="preserve">262.697806894746</t>
   </si>
   <si>
     <t xml:space="preserve">cn_01</t>
   </si>
   <si>
-    <t xml:space="preserve">264.588890933851</t>
+    <t xml:space="preserve">284.546751942155</t>
   </si>
   <si>
     <t xml:space="preserve">gfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.990941752229295</t>
+    <t xml:space="preserve">0.99156218546638</t>
   </si>
   <si>
     <t xml:space="preserve">agfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.986081229035259</t>
+    <t xml:space="preserve">0.987034577667852</t>
   </si>
   <si>
     <t xml:space="preserve">pgfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.64489860065716</t>
+    <t xml:space="preserve">0.645302374668597</t>
   </si>
   <si>
     <t xml:space="preserve">mfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881527047837604</t>
+    <t xml:space="preserve">0.900849676300365</t>
   </si>
   <si>
     <t xml:space="preserve">ecvi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.994802737771698</t>
+    <t xml:space="preserve">0.951437302790635</t>
   </si>
 </sst>
 </file>
@@ -1285,22 +1285,22 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.17566365728356</v>
+        <v>1.11257638463175</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0694635380793763</v>
+        <v>0.049559102246217</v>
       </c>
       <c r="H3" t="n">
-        <v>16.9249031907953</v>
+        <v>22.4494862538935</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.05243022807747</v>
+        <v>1.02614966556598</v>
       </c>
       <c r="K3" t="n">
-        <v>1.3249568012723</v>
+        <v>1.22160171304437</v>
       </c>
     </row>
     <row r="4">
@@ -1320,22 +1320,22 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.14726614529683</v>
+        <v>0.99353928736813</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0817349232677968</v>
+        <v>0.0524929381670966</v>
       </c>
       <c r="H4" t="n">
-        <v>14.036425305471</v>
+        <v>18.927103760233</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.00680124640029</v>
+        <v>0.892196416523566</v>
       </c>
       <c r="K4" t="n">
-        <v>1.32410097038099</v>
+        <v>1.09862331427398</v>
       </c>
     </row>
     <row r="5">
@@ -1386,22 +1386,22 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.833064023650591</v>
+        <v>0.828400786355925</v>
       </c>
       <c r="G6" t="n">
-        <v>0.123358935555238</v>
+        <v>0.122977581721035</v>
       </c>
       <c r="H6" t="n">
-        <v>6.75317130373224</v>
+        <v>6.73619349773103</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0000000000144648737432362</v>
+        <v>0.0000000000162589941510305</v>
       </c>
       <c r="J6" t="n">
-        <v>0.597036244467506</v>
+        <v>0.587883834051632</v>
       </c>
       <c r="K6" t="n">
-        <v>1.07774811041071</v>
+        <v>1.07048670596937</v>
       </c>
     </row>
     <row r="7">
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.763116570711198</v>
+        <v>0.76272511117739</v>
       </c>
       <c r="G7" t="n">
-        <v>0.129346577176679</v>
+        <v>0.13057097089995</v>
       </c>
       <c r="H7" t="n">
-        <v>5.89978171334857</v>
+        <v>5.84146005747195</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00000000363982799456153</v>
+        <v>0.00000000517452858339595</v>
       </c>
       <c r="J7" t="n">
-        <v>0.509854972476569</v>
+        <v>0.507493927721234</v>
       </c>
       <c r="K7" t="n">
-        <v>1.02397566552343</v>
+        <v>1.0259969076797</v>
       </c>
     </row>
     <row r="8">
@@ -1456,22 +1456,22 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.596262611909085</v>
+        <v>0.593903787766087</v>
       </c>
       <c r="G8" t="n">
-        <v>0.104431249037726</v>
+        <v>0.1049654285651</v>
       </c>
       <c r="H8" t="n">
-        <v>5.70961869558495</v>
+        <v>5.65808948608012</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0000000113229565723572</v>
+        <v>0.000000015306732548126</v>
       </c>
       <c r="J8" t="n">
-        <v>0.391668626995131</v>
+        <v>0.386050446283044</v>
       </c>
       <c r="K8" t="n">
-        <v>0.798287145693847</v>
+        <v>0.795328334839208</v>
       </c>
     </row>
     <row r="9">
@@ -1522,22 +1522,22 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1.86491409112641</v>
+        <v>1.87013738798363</v>
       </c>
       <c r="G10" t="n">
-        <v>0.438875426525284</v>
+        <v>0.425031187028723</v>
       </c>
       <c r="H10" t="n">
-        <v>4.24930168884488</v>
+        <v>4.4000003883415</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0000214437954499935</v>
+        <v>0.0000108250684429656</v>
       </c>
       <c r="J10" t="n">
-        <v>1.32080058636984</v>
+        <v>1.32954192715283</v>
       </c>
       <c r="K10" t="n">
-        <v>3.0189547672794</v>
+        <v>2.96845847856344</v>
       </c>
     </row>
     <row r="11">
@@ -1557,22 +1557,22 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.52631757486578</v>
+        <v>1.52803102447829</v>
       </c>
       <c r="G11" t="n">
-        <v>0.247732529265017</v>
+        <v>0.244997374900361</v>
       </c>
       <c r="H11" t="n">
-        <v>6.16115121980195</v>
+        <v>6.23692815116785</v>
       </c>
       <c r="I11" t="n">
-        <v>0.000000000722179871459616</v>
+        <v>0.000000000446246817276119</v>
       </c>
       <c r="J11" t="n">
-        <v>1.13397816956791</v>
+        <v>1.13898882325691</v>
       </c>
       <c r="K11" t="n">
-        <v>2.09870753132318</v>
+        <v>2.0956759638891</v>
       </c>
     </row>
     <row r="12">
@@ -1592,22 +1592,22 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1.07303300794076</v>
+        <v>1.07884047826509</v>
       </c>
       <c r="G12" t="n">
-        <v>0.204907065796114</v>
+        <v>0.204990247189193</v>
       </c>
       <c r="H12" t="n">
-        <v>5.23668134025426</v>
+        <v>5.26288685953627</v>
       </c>
       <c r="I12" t="n">
-        <v>0.000000163489604076972</v>
+        <v>0.000000141810853504509</v>
       </c>
       <c r="J12" t="n">
-        <v>0.741945634861177</v>
+        <v>0.749664002850883</v>
       </c>
       <c r="K12" t="n">
-        <v>1.5598183387016</v>
+        <v>1.55916084619046</v>
       </c>
     </row>
     <row r="13">
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.1207160881671</v>
+        <v>1.12069475477792</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0468889833670073</v>
+        <v>0.0468982167431099</v>
       </c>
       <c r="H14" t="n">
-        <v>23.9014797867354</v>
+        <v>23.8963191482662</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.0341858039418</v>
+        <v>1.03413124693268</v>
       </c>
       <c r="K14" t="n">
-        <v>1.21777526304762</v>
+        <v>1.21774478951976</v>
       </c>
     </row>
     <row r="15">
@@ -1693,22 +1693,22 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1.11322057176402</v>
+        <v>1.11320574311483</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0456742763974304</v>
+        <v>0.0456636143106083</v>
       </c>
       <c r="H15" t="n">
-        <v>24.373031377168</v>
+        <v>24.378397547393</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.0280611762756</v>
+        <v>1.02805060588425</v>
       </c>
       <c r="K15" t="n">
-        <v>1.21030249992267</v>
+        <v>1.21022111963876</v>
       </c>
     </row>
     <row r="16">
@@ -1759,22 +1759,22 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.25074719963787</v>
+        <v>1.25255788038179</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0729298949223696</v>
+        <v>0.073342011570848</v>
       </c>
       <c r="H17" t="n">
-        <v>17.1499931676747</v>
+        <v>17.0783136916258</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.12365371335841</v>
+        <v>1.12504985552657</v>
       </c>
       <c r="K17" t="n">
-        <v>1.41554292630039</v>
+        <v>1.4183682830652</v>
       </c>
     </row>
     <row r="18">
@@ -1794,22 +1794,22 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.04660122183237</v>
+        <v>1.04658936278846</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0661914717160013</v>
+        <v>0.066179158377641</v>
       </c>
       <c r="H18" t="n">
-        <v>15.8117230921058</v>
+        <v>15.8144858358014</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.927998090331818</v>
+        <v>0.927801605929628</v>
       </c>
       <c r="K18" t="n">
-        <v>1.18637186015509</v>
+        <v>1.18634485571816</v>
       </c>
     </row>
     <row r="19">
@@ -1829,22 +1829,22 @@
         <v>53</v>
       </c>
       <c r="F19" t="n">
-        <v>0.219540013753917</v>
+        <v>0.20974943098221</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0537057960256158</v>
+        <v>0.0469707386104285</v>
       </c>
       <c r="H19" t="n">
-        <v>4.08782719930647</v>
+        <v>4.46553401516324</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0000435432291407967</v>
+        <v>0.00000798692808157142</v>
       </c>
       <c r="J19" t="n">
-        <v>0.121054502556944</v>
+        <v>0.120745794939504</v>
       </c>
       <c r="K19" t="n">
-        <v>0.329296140989581</v>
+        <v>0.30575520723642</v>
       </c>
     </row>
     <row r="20">
@@ -1864,22 +1864,22 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.067798872559384</v>
+        <v>-0.0714408108887556</v>
       </c>
       <c r="G20" t="n">
-        <v>0.110611017321518</v>
+        <v>0.108683631111659</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.612948639305159</v>
+        <v>-0.657328156577316</v>
       </c>
       <c r="I20" t="n">
-        <v>0.539910300730761</v>
+        <v>0.51096993564965</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.299006209673017</v>
+        <v>-0.297265447141187</v>
       </c>
       <c r="K20" t="n">
-        <v>0.135400403317802</v>
+        <v>0.131140178330672</v>
       </c>
     </row>
     <row r="21">
@@ -1899,22 +1899,22 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0844166765368188</v>
+        <v>0.0859640058200127</v>
       </c>
       <c r="G21" t="n">
-        <v>0.056065858321073</v>
+        <v>0.0555213022406407</v>
       </c>
       <c r="H21" t="n">
-        <v>1.50566992220807</v>
+        <v>1.54830672824328</v>
       </c>
       <c r="I21" t="n">
-        <v>0.13215192890551</v>
+        <v>0.121548465312766</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.0180734941568948</v>
+        <v>-0.0147060215693805</v>
       </c>
       <c r="K21" t="n">
-        <v>0.202147185065085</v>
+        <v>0.203575529324991</v>
       </c>
     </row>
     <row r="22">
@@ -1934,22 +1934,22 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0533002648499698</v>
+        <v>0.0444823002217896</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0661723269481389</v>
+        <v>0.0655474108626177</v>
       </c>
       <c r="H22" t="n">
-        <v>0.805476659325321</v>
+        <v>0.678627876164644</v>
       </c>
       <c r="I22" t="n">
-        <v>0.42054467010816</v>
+        <v>0.497373675428734</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.0734705698834669</v>
+        <v>-0.0817365758953528</v>
       </c>
       <c r="K22" t="n">
-        <v>0.18578697317531</v>
+        <v>0.175529025649918</v>
       </c>
     </row>
     <row r="23">
@@ -1969,22 +1969,22 @@
         <v>59</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.264378577513399</v>
+        <v>-0.248408078158097</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0811716686403204</v>
+        <v>0.072474571181858</v>
       </c>
       <c r="H23" t="n">
-        <v>-3.25703021684679</v>
+        <v>-3.42752049590987</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0011258444735911</v>
+        <v>0.000609120320450574</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.433429201386195</v>
+        <v>-0.400557688968072</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.120641046161393</v>
+        <v>-0.121166895574828</v>
       </c>
     </row>
     <row r="24">
@@ -2004,22 +2004,22 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.162668911647038</v>
+        <v>0.164431397664077</v>
       </c>
       <c r="G24" t="n">
-        <v>0.162996085216524</v>
+        <v>0.162484456406</v>
       </c>
       <c r="H24" t="n">
-        <v>0.997992751978976</v>
+        <v>1.01198232311657</v>
       </c>
       <c r="I24" t="n">
-        <v>0.318282873288978</v>
+        <v>0.311546505426725</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.152666964155645</v>
+        <v>-0.146606063096836</v>
       </c>
       <c r="K24" t="n">
-        <v>0.487042639973845</v>
+        <v>0.490095590981706</v>
       </c>
     </row>
     <row r="25">
@@ -2039,22 +2039,22 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.307747500861408</v>
+        <v>0.305861980362831</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0731489931288888</v>
+        <v>0.0730111936074081</v>
       </c>
       <c r="H25" t="n">
-        <v>4.20713242517441</v>
+        <v>4.18924777490279</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0000258631599348025</v>
+        <v>0.0000279880673679234</v>
       </c>
       <c r="J25" t="n">
-        <v>0.156954078384241</v>
+        <v>0.154398976342882</v>
       </c>
       <c r="K25" t="n">
-        <v>0.446133059562024</v>
+        <v>0.441503221865445</v>
       </c>
     </row>
     <row r="26">
@@ -2074,22 +2074,22 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.399527142348597</v>
+        <v>0.413324183767126</v>
       </c>
       <c r="G26" t="n">
-        <v>0.107685254243351</v>
+        <v>0.10714085738729</v>
       </c>
       <c r="H26" t="n">
-        <v>3.71013789358505</v>
+        <v>3.85776438462736</v>
       </c>
       <c r="I26" t="n">
-        <v>0.000207146388217838</v>
+        <v>0.000114428874524286</v>
       </c>
       <c r="J26" t="n">
-        <v>0.212997995210819</v>
+        <v>0.227898334486358</v>
       </c>
       <c r="K26" t="n">
-        <v>0.624340091435563</v>
+        <v>0.637606135716123</v>
       </c>
     </row>
     <row r="27">
@@ -2109,22 +2109,22 @@
         <v>64</v>
       </c>
       <c r="F27" t="n">
-        <v>0.589127865367759</v>
+        <v>0.633932894863982</v>
       </c>
       <c r="G27" t="n">
-        <v>0.156009753802885</v>
+        <v>0.17160556896885</v>
       </c>
       <c r="H27" t="n">
-        <v>3.77622456934398</v>
+        <v>3.69412775280651</v>
       </c>
       <c r="I27" t="n">
-        <v>0.000159223446949186</v>
+        <v>0.000220642858908437</v>
       </c>
       <c r="J27" t="n">
-        <v>0.278807966882628</v>
+        <v>0.2927443750067</v>
       </c>
       <c r="K27" t="n">
-        <v>0.891023891431812</v>
+        <v>0.958109666967216</v>
       </c>
     </row>
     <row r="28">
@@ -2144,22 +2144,22 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.00372948902838066</v>
+        <v>-0.0123071671396724</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0720150105127576</v>
+        <v>0.077381015231589</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.051787662069701</v>
+        <v>-0.159046338469959</v>
       </c>
       <c r="I28" t="n">
-        <v>0.958697886601874</v>
+        <v>0.873632365628675</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.143510682782144</v>
+        <v>-0.167402764083428</v>
       </c>
       <c r="K28" t="n">
-        <v>0.140000412782877</v>
+        <v>0.137715769135729</v>
       </c>
     </row>
     <row r="29">
@@ -2179,22 +2179,22 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.354066128332284</v>
+        <v>-0.328051377411111</v>
       </c>
       <c r="G29" t="n">
-        <v>0.103874215437573</v>
+        <v>0.107335293524093</v>
       </c>
       <c r="H29" t="n">
-        <v>-3.40860459778946</v>
+        <v>-3.05632347609388</v>
       </c>
       <c r="I29" t="n">
-        <v>0.000652960473908282</v>
+        <v>0.00224069375908664</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.567492764302772</v>
+        <v>-0.543745991800195</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.159988041670263</v>
+        <v>-0.122180499540953</v>
       </c>
     </row>
     <row r="30">
@@ -2214,22 +2214,22 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.170868711099808</v>
+        <v>-0.159835404993609</v>
       </c>
       <c r="G30" t="n">
-        <v>0.113396480086312</v>
+        <v>0.111407505626533</v>
       </c>
       <c r="H30" t="n">
-        <v>-1.50682552906184</v>
+        <v>-1.43469153262814</v>
       </c>
       <c r="I30" t="n">
-        <v>0.131855384043589</v>
+        <v>0.151375018145399</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.420500610061835</v>
+        <v>-0.408954571726743</v>
       </c>
       <c r="K30" t="n">
-        <v>0.031376812913887</v>
+        <v>0.0391588285434177</v>
       </c>
     </row>
     <row r="31">
@@ -2249,22 +2249,22 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.07768650471164</v>
+        <v>0.980965290249619</v>
       </c>
       <c r="G31" t="n">
-        <v>0.196493844294539</v>
+        <v>0.184670636578903</v>
       </c>
       <c r="H31" t="n">
-        <v>5.48458150727724</v>
+        <v>5.3119722140043</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0000000414449365937486</v>
+        <v>0.000000108445141533409</v>
       </c>
       <c r="J31" t="n">
-        <v>0.69809489709952</v>
+        <v>0.638124354986217</v>
       </c>
       <c r="K31" t="n">
-        <v>1.45957051645366</v>
+        <v>1.36505957816803</v>
       </c>
     </row>
     <row r="32">
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.635652009253453</v>
+        <v>0.374420358510056</v>
       </c>
       <c r="G32" t="n">
-        <v>0.183626538383475</v>
+        <v>0.150080753036442</v>
       </c>
       <c r="H32" t="n">
-        <v>3.46165654947976</v>
+        <v>2.49479264285902</v>
       </c>
       <c r="I32" t="n">
-        <v>0.000536861785910281</v>
+        <v>0.0126030755015873</v>
       </c>
       <c r="J32" t="n">
-        <v>0.293054063880043</v>
+        <v>0.0987959527960008</v>
       </c>
       <c r="K32" t="n">
-        <v>1.0062273201607</v>
+        <v>0.699081659811572</v>
       </c>
     </row>
     <row r="33">
@@ -2319,22 +2319,22 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.758590388556199</v>
+        <v>0.617831457630471</v>
       </c>
       <c r="G33" t="n">
-        <v>0.157502325908548</v>
+        <v>0.139556584293264</v>
       </c>
       <c r="H33" t="n">
-        <v>4.81637578480374</v>
+        <v>4.42710360646374</v>
       </c>
       <c r="I33" t="n">
-        <v>0.00000146189097094407</v>
+        <v>0.00000955068650343449</v>
       </c>
       <c r="J33" t="n">
-        <v>0.468704580981903</v>
+        <v>0.354948285153399</v>
       </c>
       <c r="K33" t="n">
-        <v>1.08401490170151</v>
+        <v>0.904909623052487</v>
       </c>
     </row>
     <row r="34">
@@ -2354,22 +2354,22 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1.44458436770197</v>
+        <v>1.43659425953907</v>
       </c>
       <c r="G34" t="n">
-        <v>0.273699084662099</v>
+        <v>0.276338456214696</v>
       </c>
       <c r="H34" t="n">
-        <v>5.27800218800662</v>
+        <v>5.19867657660699</v>
       </c>
       <c r="I34" t="n">
-        <v>0.000000130599906222884</v>
+        <v>0.000000200712403586323</v>
       </c>
       <c r="J34" t="n">
-        <v>0.824899591325645</v>
+        <v>0.799467726511615</v>
       </c>
       <c r="K34" t="n">
-        <v>1.8990427588638</v>
+        <v>1.89150499179614</v>
       </c>
     </row>
     <row r="35">
@@ -2389,22 +2389,22 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.40447946073184</v>
+        <v>1.41253572270943</v>
       </c>
       <c r="G35" t="n">
-        <v>0.205903251009521</v>
+        <v>0.205432857807636</v>
       </c>
       <c r="H35" t="n">
-        <v>6.82106500915275</v>
+        <v>6.8758996870506</v>
       </c>
       <c r="I35" t="n">
-        <v>0.00000000000903677133123892</v>
+        <v>0.00000000000615996142983022</v>
       </c>
       <c r="J35" t="n">
-        <v>1.01490397823002</v>
+        <v>1.02761615623454</v>
       </c>
       <c r="K35" t="n">
-        <v>1.81503496258042</v>
+        <v>1.82500084456538</v>
       </c>
     </row>
     <row r="36">
@@ -2424,22 +2424,22 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>2.23049199213385</v>
+        <v>2.22688462475734</v>
       </c>
       <c r="G36" t="n">
-        <v>0.270315549109521</v>
+        <v>0.27235777936156</v>
       </c>
       <c r="H36" t="n">
-        <v>8.25143799341762</v>
+        <v>8.17632097741958</v>
       </c>
       <c r="I36" t="n">
         <v>0.000000000000000222044604925031</v>
       </c>
       <c r="J36" t="n">
-        <v>1.70854851529702</v>
+        <v>1.70061917817485</v>
       </c>
       <c r="K36" t="n">
-        <v>2.76256473707497</v>
+        <v>2.76252292270973</v>
       </c>
     </row>
     <row r="37">
@@ -2459,22 +2459,22 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.77285525740052</v>
+        <v>1.77494785502969</v>
       </c>
       <c r="G37" t="n">
-        <v>0.19497326042188</v>
+        <v>0.195571234063331</v>
       </c>
       <c r="H37" t="n">
-        <v>9.09281228392268</v>
+        <v>9.07571025734242</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.38894325614302</v>
+        <v>1.39121553753177</v>
       </c>
       <c r="K37" t="n">
-        <v>2.15160191881054</v>
+        <v>2.1557506697518</v>
       </c>
     </row>
     <row r="38">
@@ -2494,22 +2494,22 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>2.09672257053864</v>
+        <v>2.09985149687873</v>
       </c>
       <c r="G38" t="n">
-        <v>0.227016695708618</v>
+        <v>0.224538846809345</v>
       </c>
       <c r="H38" t="n">
-        <v>9.23598400546646</v>
+        <v>9.35184056886914</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.62910283528294</v>
+        <v>1.63515649832536</v>
       </c>
       <c r="K38" t="n">
-        <v>2.5225074230461</v>
+        <v>2.52465013724732</v>
       </c>
     </row>
     <row r="39">
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>1.51895927773724</v>
+        <v>1.51707218864903</v>
       </c>
       <c r="G39" t="n">
-        <v>0.418459804744944</v>
+        <v>0.401341187924649</v>
       </c>
       <c r="H39" t="n">
-        <v>3.62988095992412</v>
+        <v>3.78000622486287</v>
       </c>
       <c r="I39" t="n">
-        <v>0.000283551957081851</v>
+        <v>0.000156824437936409</v>
       </c>
       <c r="J39" t="n">
-        <v>0.544062446689107</v>
+        <v>0.598723040300925</v>
       </c>
       <c r="K39" t="n">
-        <v>2.17316794296236</v>
+        <v>2.15892196887714</v>
       </c>
     </row>
     <row r="40">
@@ -2564,22 +2564,22 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2.22895046162365</v>
+        <v>2.23282315692058</v>
       </c>
       <c r="G40" t="n">
-        <v>0.318201479195866</v>
+        <v>0.310416939099093</v>
       </c>
       <c r="H40" t="n">
-        <v>7.00484003800512</v>
+        <v>7.19298103834406</v>
       </c>
       <c r="I40" t="n">
-        <v>0.00000000000247268872044515</v>
+        <v>0.000000000000633937347060964</v>
       </c>
       <c r="J40" t="n">
-        <v>1.64513277448588</v>
+        <v>1.66787092650546</v>
       </c>
       <c r="K40" t="n">
-        <v>2.90110925993893</v>
+        <v>2.88596086456342</v>
       </c>
     </row>
     <row r="41">
@@ -2599,22 +2599,22 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>2.05560765457865</v>
+        <v>2.05102162560694</v>
       </c>
       <c r="G41" t="n">
-        <v>0.220434446630674</v>
+        <v>0.219362995448492</v>
       </c>
       <c r="H41" t="n">
-        <v>9.32525603869302</v>
+        <v>9.34989796895134</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1.61806452395808</v>
+        <v>1.60985816474717</v>
       </c>
       <c r="K41" t="n">
-        <v>2.4893017651095</v>
+        <v>2.47777052757458</v>
       </c>
     </row>
     <row r="42">
@@ -2634,22 +2634,22 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.588529989357781</v>
+        <v>0.588484263443631</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0805471144483731</v>
+        <v>0.080542200766131</v>
       </c>
       <c r="H42" t="n">
-        <v>7.30665515938502</v>
+        <v>7.30653319434867</v>
       </c>
       <c r="I42" t="n">
-        <v>0.000000000000273780997872564</v>
+        <v>0.000000000000274225087082414</v>
       </c>
       <c r="J42" t="n">
-        <v>0.434086403622672</v>
+        <v>0.43386744269509</v>
       </c>
       <c r="K42" t="n">
-        <v>0.752071001429958</v>
+        <v>0.751130444925822</v>
       </c>
     </row>
     <row r="43">
@@ -2669,22 +2669,22 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.228614840794913</v>
+        <v>0.228641736188914</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0527985574213872</v>
+        <v>0.0528457950801394</v>
       </c>
       <c r="H43" t="n">
-        <v>4.32994483107427</v>
+        <v>4.32658333254679</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0000149146702488334</v>
+        <v>0.0000151440042448492</v>
       </c>
       <c r="J43" t="n">
-        <v>0.125711006210591</v>
+        <v>0.125763737204564</v>
       </c>
       <c r="K43" t="n">
-        <v>0.335707645256958</v>
+        <v>0.336252622806505</v>
       </c>
     </row>
     <row r="44">
@@ -2704,22 +2704,22 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.347297224248335</v>
+        <v>0.347301716047724</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0598846774498544</v>
+        <v>0.0599147781698445</v>
       </c>
       <c r="H44" t="n">
-        <v>5.79943382911516</v>
+        <v>5.79659520833414</v>
       </c>
       <c r="I44" t="n">
-        <v>0.00000000665391874932197</v>
+        <v>0.00000000676747724526194</v>
       </c>
       <c r="J44" t="n">
-        <v>0.232640602631568</v>
+        <v>0.232361286204952</v>
       </c>
       <c r="K44" t="n">
-        <v>0.466812750208504</v>
+        <v>0.46713538551912</v>
       </c>
     </row>
     <row r="45">
@@ -2739,22 +2739,22 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.479068945652957</v>
+        <v>0.480199070632977</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0653304028550764</v>
+        <v>0.06532811225618</v>
       </c>
       <c r="H45" t="n">
-        <v>7.33301686070548</v>
+        <v>7.35057319198063</v>
       </c>
       <c r="I45" t="n">
-        <v>0.000000000000224931184789057</v>
+        <v>0.000000000000197397653778353</v>
       </c>
       <c r="J45" t="n">
-        <v>0.356639588168748</v>
+        <v>0.357677278551448</v>
       </c>
       <c r="K45" t="n">
-        <v>0.615517134512973</v>
+        <v>0.61724287301115</v>
       </c>
     </row>
     <row r="46">
@@ -2774,22 +2774,22 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0371533010855643</v>
+        <v>0.0353003548187242</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0432264233970734</v>
+        <v>0.0435488693346486</v>
       </c>
       <c r="H46" t="n">
-        <v>0.859504399526141</v>
+        <v>0.810591764104387</v>
       </c>
       <c r="I46" t="n">
-        <v>0.390062293788173</v>
+        <v>0.417600148066195</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.0524181591837381</v>
+        <v>-0.0541252501166478</v>
       </c>
       <c r="K46" t="n">
-        <v>0.117703717044998</v>
+        <v>0.116437696171194</v>
       </c>
     </row>
     <row r="47">
@@ -2809,22 +2809,22 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.47261658318556</v>
+        <v>0.473878230584543</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0539879963961655</v>
+        <v>0.054304200573295</v>
       </c>
       <c r="H47" t="n">
-        <v>8.75410488875131</v>
+        <v>8.7263641777572</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0.368079498746724</v>
+        <v>0.368409842670686</v>
       </c>
       <c r="K47" t="n">
-        <v>0.580993052908237</v>
+        <v>0.582113756421117</v>
       </c>
     </row>
     <row r="48">
@@ -2844,22 +2844,22 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>1.86132773752089</v>
+        <v>2.30323315139421</v>
       </c>
       <c r="G48" t="n">
-        <v>0.243266535941623</v>
+        <v>0.214863342452341</v>
       </c>
       <c r="H48" t="n">
-        <v>7.65139245443753</v>
+        <v>10.7195258395698</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0000000000000199840144432528</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.38169190374166</v>
+        <v>1.86017366526262</v>
       </c>
       <c r="K48" t="n">
-        <v>2.33806760002552</v>
+        <v>2.71196396123989</v>
       </c>
     </row>
     <row r="49">
@@ -2879,22 +2879,22 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>1.33003187605351</v>
+        <v>1.32489078489796</v>
       </c>
       <c r="G49" t="n">
-        <v>0.255244993787122</v>
+        <v>0.254619971455712</v>
       </c>
       <c r="H49" t="n">
-        <v>5.21080494594452</v>
+        <v>5.20340481276197</v>
       </c>
       <c r="I49" t="n">
-        <v>0.000000188023052016817</v>
+        <v>0.000000195669996649883</v>
       </c>
       <c r="J49" t="n">
-        <v>0.886051528842887</v>
+        <v>0.883076441624299</v>
       </c>
       <c r="K49" t="n">
-        <v>1.88010143795986</v>
+        <v>1.87379826688543</v>
       </c>
     </row>
     <row r="50">
@@ -2914,22 +2914,22 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.55599483072789</v>
+        <v>0.541309438790034</v>
       </c>
       <c r="G50" t="n">
-        <v>0.174225109571014</v>
+        <v>0.168223304601856</v>
       </c>
       <c r="H50" t="n">
-        <v>3.19124397222012</v>
+        <v>3.21780290829016</v>
       </c>
       <c r="I50" t="n">
-        <v>0.00141661602407916</v>
+        <v>0.00129176548311327</v>
       </c>
       <c r="J50" t="n">
-        <v>0.255768940913625</v>
+        <v>0.249354308991848</v>
       </c>
       <c r="K50" t="n">
-        <v>0.93092724278825</v>
+        <v>0.90594749224386</v>
       </c>
     </row>
     <row r="51">
@@ -2949,22 +2949,22 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>1.53621122425618</v>
+        <v>1.53623779231359</v>
       </c>
       <c r="G51" t="n">
-        <v>0.155353152701617</v>
+        <v>0.155329888886815</v>
       </c>
       <c r="H51" t="n">
-        <v>9.88851013024975</v>
+        <v>9.89016217885153</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>1.24016341152855</v>
+        <v>1.24009924175303</v>
       </c>
       <c r="K51" t="n">
-        <v>1.84688935554497</v>
+        <v>1.84675893202827</v>
       </c>
     </row>
     <row r="52">
@@ -2984,22 +2984,22 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.800828342311398</v>
+        <v>0.799694165388397</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0902319645465114</v>
+        <v>0.0901845774855328</v>
       </c>
       <c r="H52" t="n">
-        <v>8.87521784919799</v>
+        <v>8.86730511673886</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0.62334946848335</v>
+        <v>0.622168705245589</v>
       </c>
       <c r="K52" t="n">
-        <v>0.978844230856639</v>
+        <v>0.97714797353704</v>
       </c>
     </row>
     <row r="53">
@@ -3019,22 +3019,22 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.176120038795329</v>
+        <v>-0.175843653078106</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0724152910275193</v>
+        <v>0.0723304776099686</v>
       </c>
       <c r="H53" t="n">
-        <v>-2.43208355992659</v>
+        <v>-2.43111422582217</v>
       </c>
       <c r="I53" t="n">
-        <v>0.0150122435392448</v>
+        <v>0.0150524682538238</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.317528264971614</v>
+        <v>-0.317012118470077</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.0397474244899789</v>
+        <v>-0.039496794872559</v>
       </c>
     </row>
     <row r="54">
@@ -3085,22 +3085,22 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>4.8563232251776</v>
+        <v>4.81025252679033</v>
       </c>
       <c r="G55" t="n">
-        <v>0.128538260949673</v>
+        <v>0.135297307314376</v>
       </c>
       <c r="H55" t="n">
-        <v>37.7811492803611</v>
+        <v>35.5532022201539</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>4.60350345299158</v>
+        <v>4.54506222811821</v>
       </c>
       <c r="K55" t="n">
-        <v>5.10730276828626</v>
+        <v>5.07239225037107</v>
       </c>
     </row>
     <row r="56">
@@ -3120,22 +3120,22 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>4.78091072100488</v>
+        <v>4.86332714756795</v>
       </c>
       <c r="G56" t="n">
-        <v>0.141266737714795</v>
+        <v>0.14634481478519</v>
       </c>
       <c r="H56" t="n">
-        <v>33.8431452325112</v>
+        <v>33.2319744618661</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>4.50203202334618</v>
+        <v>4.58181275836845</v>
       </c>
       <c r="K56" t="n">
-        <v>5.05161267356299</v>
+        <v>5.15162389820661</v>
       </c>
     </row>
     <row r="57">
@@ -3155,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>4.87803286949987</v>
+        <v>5.14366147111724</v>
       </c>
       <c r="G57" t="n">
-        <v>0.141840399082768</v>
+        <v>0.134830783382283</v>
       </c>
       <c r="H57" t="n">
-        <v>34.3909979176906</v>
+        <v>38.1490142094147</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>4.60156121875688</v>
+        <v>4.87914763207867</v>
       </c>
       <c r="K57" t="n">
-        <v>5.15473867160623</v>
+        <v>5.40268720320622</v>
       </c>
     </row>
     <row r="58">
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>3.98174907812244</v>
+        <v>3.98172819283301</v>
       </c>
       <c r="G58" t="n">
-        <v>0.125847025007735</v>
+        <v>0.126040786299204</v>
       </c>
       <c r="H58" t="n">
-        <v>31.6395963899641</v>
+        <v>31.5907914393751</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>3.73642129515004</v>
+        <v>3.73613683310201</v>
       </c>
       <c r="K58" t="n">
-        <v>4.23489013554604</v>
+        <v>4.23443216127575</v>
       </c>
     </row>
     <row r="59">
@@ -3225,22 +3225,22 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>4.81368731318726</v>
+        <v>4.8136863846388</v>
       </c>
       <c r="G59" t="n">
-        <v>0.110508676315647</v>
+        <v>0.110295912808416</v>
       </c>
       <c r="H59" t="n">
-        <v>43.5593608907041</v>
+        <v>43.6433795420886</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>4.59499223547254</v>
+        <v>4.59508528518519</v>
       </c>
       <c r="K59" t="n">
-        <v>5.02574920917854</v>
+        <v>5.02516031367091</v>
       </c>
     </row>
     <row r="60">
@@ -3260,22 +3260,22 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>4.65712468010098</v>
+        <v>4.65710961227234</v>
       </c>
       <c r="G60" t="n">
-        <v>0.116520235778875</v>
+        <v>0.116582000233115</v>
       </c>
       <c r="H60" t="n">
-        <v>39.9683767284766</v>
+        <v>39.947072472252</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>4.42581142951499</v>
+        <v>4.42623878161702</v>
       </c>
       <c r="K60" t="n">
-        <v>4.8829656252035</v>
+        <v>4.88317438302506</v>
       </c>
     </row>
     <row r="61">
@@ -3295,22 +3295,22 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>4.66361843569294</v>
+        <v>4.66361436993499</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0940853744185092</v>
+        <v>0.0940308038824406</v>
       </c>
       <c r="H61" t="n">
-        <v>49.5679425682923</v>
+        <v>49.5966659581635</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>4.47412035185074</v>
+        <v>4.47398483436681</v>
       </c>
       <c r="K61" t="n">
-        <v>4.84686877671136</v>
+        <v>4.84653049244376</v>
       </c>
     </row>
     <row r="62">
@@ -3330,22 +3330,22 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>4.37159728855534</v>
+        <v>4.37160380918366</v>
       </c>
       <c r="G62" t="n">
-        <v>0.103645911275866</v>
+        <v>0.103362211177736</v>
       </c>
       <c r="H62" t="n">
-        <v>42.1781933772555</v>
+        <v>42.2940236994979</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>4.17230878588471</v>
+        <v>4.17233532231701</v>
       </c>
       <c r="K62" t="n">
-        <v>4.5739980560596</v>
+        <v>4.57310158227727</v>
       </c>
     </row>
     <row r="63">
@@ -3365,22 +3365,22 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>4.38936335033822</v>
+        <v>4.38921404334868</v>
       </c>
       <c r="G63" t="n">
-        <v>0.154128908389022</v>
+        <v>0.153170894144655</v>
       </c>
       <c r="H63" t="n">
-        <v>28.4785209745304</v>
+        <v>28.6556663905317</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>4.07653315718368</v>
+        <v>4.07878847883699</v>
       </c>
       <c r="K63" t="n">
-        <v>4.67537922602058</v>
+        <v>4.67382580193645</v>
       </c>
     </row>
     <row r="64">
@@ -3400,22 +3400,22 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>3.89682279472579</v>
+        <v>3.89677972313525</v>
       </c>
       <c r="G64" t="n">
-        <v>0.131459246596731</v>
+        <v>0.131160658043392</v>
       </c>
       <c r="H64" t="n">
-        <v>29.6428200800497</v>
+        <v>29.7099738691923</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>3.64289041927182</v>
+        <v>3.64314161636493</v>
       </c>
       <c r="K64" t="n">
-        <v>4.15755597359547</v>
+        <v>4.15632882297268</v>
       </c>
     </row>
     <row r="65">
@@ -3435,22 +3435,22 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>4.56757505839294</v>
+        <v>4.56740293972501</v>
       </c>
       <c r="G65" t="n">
-        <v>0.108027842890441</v>
+        <v>0.107994234218451</v>
       </c>
       <c r="H65" t="n">
-        <v>42.2814612990582</v>
+        <v>42.2930258525291</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>4.35443576238569</v>
+        <v>4.35427995340737</v>
       </c>
       <c r="K65" t="n">
-        <v>4.77978430466616</v>
+        <v>4.77917393700682</v>
       </c>
     </row>
     <row r="66">
@@ -3470,22 +3470,22 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>4.90828383753475</v>
+        <v>4.90828375092286</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0803015811362858</v>
+        <v>0.0803015767047399</v>
       </c>
       <c r="H66" t="n">
-        <v>61.1231281885289</v>
+        <v>61.1231304831047</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>4.75147927087707</v>
+        <v>4.75147910762084</v>
       </c>
       <c r="K66" t="n">
-        <v>5.06508892357589</v>
+        <v>5.0650888397988</v>
       </c>
     </row>
     <row r="67">
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>4.9319526503708</v>
+        <v>4.93195252973553</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0803939762736827</v>
+        <v>0.0803939760876133</v>
       </c>
       <c r="H67" t="n">
-        <v>61.3472909161889</v>
+        <v>61.3472895576242</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>4.77514753604554</v>
+        <v>4.77514781315854</v>
       </c>
       <c r="K67" t="n">
-        <v>5.09171603219298</v>
+        <v>5.09171617829408</v>
       </c>
     </row>
     <row r="68">
@@ -3540,22 +3540,22 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>5.02070995056146</v>
+        <v>5.02070988379688</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0820210294943869</v>
+        <v>0.0820210250769886</v>
       </c>
       <c r="H68" t="n">
-        <v>61.2124717467128</v>
+        <v>61.2124742294335</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>4.86094647207331</v>
+        <v>4.86094661143037</v>
       </c>
       <c r="K68" t="n">
-        <v>5.18639047290029</v>
+        <v>5.18639041601939</v>
       </c>
     </row>
     <row r="69">
@@ -3575,22 +3575,22 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>3.14792883755831</v>
+        <v>3.14792922607227</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0613600704840359</v>
+        <v>0.061360060506716</v>
       </c>
       <c r="H69" t="n">
-        <v>51.3025622807476</v>
+        <v>51.3025769543972</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>3.02662757043082</v>
+        <v>3.02662731859549</v>
       </c>
       <c r="K69" t="n">
-        <v>3.26923051133348</v>
+        <v>3.26923048226546</v>
       </c>
     </row>
     <row r="70">
@@ -3610,22 +3610,22 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>2.84615381426919</v>
+        <v>2.8461541711815</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0603606914023922</v>
+        <v>0.0603606914963944</v>
       </c>
       <c r="H70" t="n">
-        <v>47.1524389158404</v>
+        <v>47.1524447554003</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>2.7248519373845</v>
+        <v>2.72485226883494</v>
       </c>
       <c r="K70" t="n">
-        <v>2.96449770290848</v>
+        <v>2.96449710519763</v>
       </c>
     </row>
     <row r="71">
@@ -3645,22 +3645,22 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>2.63609457772873</v>
+        <v>2.63609495251195</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0622340501052815</v>
+        <v>0.0622340388927147</v>
       </c>
       <c r="H71" t="n">
-        <v>42.3577538866463</v>
+        <v>42.3577675403057</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>2.5148677479646</v>
+        <v>2.51486770217759</v>
       </c>
       <c r="K71" t="n">
-        <v>2.76035564462491</v>
+        <v>2.76035555905306</v>
       </c>
     </row>
     <row r="72">
@@ -3866,22 +3866,22 @@
         <v>118</v>
       </c>
       <c r="F78" t="n">
-        <v>0.129337139665654</v>
+        <v>0.132967063978625</v>
       </c>
       <c r="G78" t="n">
-        <v>0.045249188396444</v>
+        <v>0.0456026136559537</v>
       </c>
       <c r="H78" t="n">
-        <v>2.85833059661724</v>
+        <v>2.91577726184266</v>
       </c>
       <c r="I78" t="n">
-        <v>0.0042587643644556</v>
+        <v>0.00354803699030914</v>
       </c>
       <c r="J78" t="n">
-        <v>0.050904273960423</v>
+        <v>0.052842216822941</v>
       </c>
       <c r="K78" t="n">
-        <v>0.225047161902375</v>
+        <v>0.230172675843618</v>
       </c>
     </row>
     <row r="79">
@@ -3901,22 +3901,22 @@
         <v>122</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.155752787019433</v>
+        <v>-0.157474052094361</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0638994001398288</v>
+        <v>0.0642506220028367</v>
       </c>
       <c r="H79" t="n">
-        <v>-2.43746868794707</v>
+        <v>-2.45093428180988</v>
       </c>
       <c r="I79" t="n">
-        <v>0.0147904951010485</v>
+        <v>0.0142485965082617</v>
       </c>
       <c r="J79" t="n">
-        <v>-0.299868172294837</v>
+        <v>-0.303628956774575</v>
       </c>
       <c r="K79" t="n">
-        <v>-0.050728046550998</v>
+        <v>-0.0533797646085845</v>
       </c>
     </row>
   </sheetData>
@@ -3985,22 +3985,22 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.809457308314541</v>
+        <v>0.846914166628606</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0386570991161853</v>
+        <v>0.0291036783675127</v>
       </c>
       <c r="H2" t="n">
-        <v>20.9394219126916</v>
+        <v>29.0999012541996</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.733690786300023</v>
+        <v>0.789872005210644</v>
       </c>
       <c r="K2" t="n">
-        <v>0.88522383032906</v>
+        <v>0.903956328046569</v>
       </c>
     </row>
     <row r="3">
@@ -4020,22 +4020,22 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.903673808717394</v>
+        <v>0.944258711191844</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0290660986246156</v>
+        <v>0.0228687276862619</v>
       </c>
       <c r="H3" t="n">
-        <v>31.0903028434675</v>
+        <v>41.2903911466442</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.846705302242058</v>
+        <v>0.899436828554517</v>
       </c>
       <c r="K3" t="n">
-        <v>0.96064231519273</v>
+        <v>0.989080593829172</v>
       </c>
     </row>
     <row r="4">
@@ -4055,22 +4055,22 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.883397107985817</v>
+        <v>0.893888697339661</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0265183623406052</v>
+        <v>0.0266416136842813</v>
       </c>
       <c r="H4" t="n">
-        <v>33.3126569672499</v>
+        <v>33.5523481397473</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.831422072869248</v>
+        <v>0.84167209402844</v>
       </c>
       <c r="K4" t="n">
-        <v>0.935372143102387</v>
+        <v>0.946105300650882</v>
       </c>
     </row>
     <row r="5">
@@ -4090,22 +4090,22 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.73991531853223</v>
+        <v>0.741604186798701</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0588047681794229</v>
+        <v>0.0592036921496385</v>
       </c>
       <c r="H5" t="n">
-        <v>12.5825735129952</v>
+        <v>12.5263165162788</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.624660090781334</v>
+        <v>0.625567082433613</v>
       </c>
       <c r="K5" t="n">
-        <v>0.855170546283125</v>
+        <v>0.857641291163789</v>
       </c>
     </row>
     <row r="6">
@@ -4125,22 +4125,22 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.680734925778848</v>
+        <v>0.678469532399291</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0569560589977374</v>
+        <v>0.0569262914811428</v>
       </c>
       <c r="H6" t="n">
-        <v>11.9519316778201</v>
+        <v>11.9183862982545</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.569103101441945</v>
+        <v>0.566896051322822</v>
       </c>
       <c r="K6" t="n">
-        <v>0.792366750115752</v>
+        <v>0.79004301347576</v>
       </c>
     </row>
     <row r="7">
@@ -4160,22 +4160,22 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.559755008049284</v>
+        <v>0.560744893605545</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0645935447505766</v>
+        <v>0.0651286655833414</v>
       </c>
       <c r="H7" t="n">
-        <v>8.66580414824327</v>
+        <v>8.60980166848333</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.433153986704378</v>
+        <v>0.433095054701043</v>
       </c>
       <c r="K7" t="n">
-        <v>0.686356029394191</v>
+        <v>0.688394732510048</v>
       </c>
     </row>
     <row r="8">
@@ -4195,22 +4195,22 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.509434720583922</v>
+        <v>0.508576852958911</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0670198277925546</v>
+        <v>0.0672612146850738</v>
       </c>
       <c r="H8" t="n">
-        <v>7.60125379851418</v>
+        <v>7.56122016737488</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0000000000000293098878501041</v>
+        <v>0.0000000000000399680288865056</v>
       </c>
       <c r="J8" t="n">
-        <v>0.378078271860438</v>
+        <v>0.37674729461975</v>
       </c>
       <c r="K8" t="n">
-        <v>0.640791169307406</v>
+        <v>0.640406411298073</v>
       </c>
     </row>
     <row r="9">
@@ -4230,22 +4230,22 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.488901483962096</v>
+        <v>0.487737498307508</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0706622730166615</v>
+        <v>0.0697012108657693</v>
       </c>
       <c r="H9" t="n">
-        <v>6.91884740032092</v>
+        <v>6.99754699020643</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00000000000455324666859269</v>
+        <v>0.00000000000260480526037554</v>
       </c>
       <c r="J9" t="n">
-        <v>0.350405973783703</v>
+        <v>0.351125635331768</v>
       </c>
       <c r="K9" t="n">
-        <v>0.627396994140489</v>
+        <v>0.624349361283247</v>
       </c>
     </row>
     <row r="10">
@@ -4265,22 +4265,22 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.775413883638991</v>
+        <v>0.775733456469209</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0797060416433589</v>
+        <v>0.0758794678868254</v>
       </c>
       <c r="H10" t="n">
-        <v>9.72842042650349</v>
+        <v>10.2232326882711</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.619192912667758</v>
+        <v>0.627012432244967</v>
       </c>
       <c r="K10" t="n">
-        <v>0.931634854610224</v>
+        <v>0.92445448069345</v>
       </c>
     </row>
     <row r="11">
@@ -4300,22 +4300,22 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.638515429273123</v>
+        <v>0.637709524684818</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0665167129138529</v>
+        <v>0.0647744316472256</v>
       </c>
       <c r="H11" t="n">
-        <v>9.59932325730041</v>
+        <v>9.84508097512782</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.508145067591981</v>
+        <v>0.510753971537205</v>
       </c>
       <c r="K11" t="n">
-        <v>0.768885790954265</v>
+        <v>0.764665077832432</v>
       </c>
     </row>
     <row r="12">
@@ -4335,22 +4335,22 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.519116642422453</v>
+        <v>0.520683415980988</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0703291349541628</v>
+        <v>0.0696184994336075</v>
       </c>
       <c r="H12" t="n">
-        <v>7.38124594822314</v>
+        <v>7.47909564579949</v>
       </c>
       <c r="I12" t="n">
-        <v>0.000000000000156763491077072</v>
+        <v>0.0000000000000748290318597356</v>
       </c>
       <c r="J12" t="n">
-        <v>0.381274070848437</v>
+        <v>0.384233664433395</v>
       </c>
       <c r="K12" t="n">
-        <v>0.656959213996469</v>
+        <v>0.657133167528581</v>
       </c>
     </row>
     <row r="13">
@@ -4370,22 +4370,22 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.850300522557114</v>
+        <v>0.850311708752949</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0226122521636084</v>
+        <v>0.0226075810868079</v>
       </c>
       <c r="H13" t="n">
-        <v>37.6035308824995</v>
+        <v>37.6117951534907</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.805981322707103</v>
+        <v>0.806001664045236</v>
       </c>
       <c r="K13" t="n">
-        <v>0.894619722407124</v>
+        <v>0.894621753460661</v>
       </c>
     </row>
     <row r="14">
@@ -4405,22 +4405,22 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.945551039001498</v>
+        <v>0.945544106406495</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0135084419915133</v>
+        <v>0.0135247136999084</v>
       </c>
       <c r="H14" t="n">
-        <v>69.9970462615555</v>
+        <v>69.912319579297</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.919074979210883</v>
+        <v>0.919036154653459</v>
       </c>
       <c r="K14" t="n">
-        <v>0.972027098792112</v>
+        <v>0.972052058159531</v>
       </c>
     </row>
     <row r="15">
@@ -4440,22 +4440,22 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9196295596893</v>
+        <v>0.919627979092052</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0155493673544745</v>
+        <v>0.0155536975845512</v>
       </c>
       <c r="H15" t="n">
-        <v>59.1425708020632</v>
+        <v>59.1260035816483</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.889153359692147</v>
+        <v>0.889143291999904</v>
       </c>
       <c r="K15" t="n">
-        <v>0.950105759686453</v>
+        <v>0.9501126661842</v>
       </c>
     </row>
     <row r="16">
@@ -4475,22 +4475,22 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.79101033542552</v>
+        <v>0.790451252118846</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0318969824492956</v>
+        <v>0.0319141790078878</v>
       </c>
       <c r="H16" t="n">
-        <v>24.7989080685903</v>
+        <v>24.768027149421</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.728493398609394</v>
+        <v>0.727900610667222</v>
       </c>
       <c r="K16" t="n">
-        <v>0.853527272241645</v>
+        <v>0.85300189357047</v>
       </c>
     </row>
     <row r="17">
@@ -4510,22 +4510,22 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.985493653263212</v>
+        <v>0.986222157220287</v>
       </c>
       <c r="G17" t="n">
-        <v>0.017100807830904</v>
+        <v>0.0172143687181625</v>
       </c>
       <c r="H17" t="n">
-        <v>57.6284853328543</v>
+        <v>57.2906374533354</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.951976685808099</v>
+        <v>0.952482614516096</v>
       </c>
       <c r="K17" t="n">
-        <v>1.01901062071832</v>
+        <v>1.01996169992448</v>
       </c>
     </row>
     <row r="18">
@@ -4545,22 +4545,22 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.806143779623468</v>
+        <v>0.805563761554411</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0266081313304639</v>
+        <v>0.0267256096009671</v>
       </c>
       <c r="H18" t="n">
-        <v>30.2968956974633</v>
+        <v>30.142016349938</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.753992800519847</v>
+        <v>0.753182529271638</v>
       </c>
       <c r="K18" t="n">
-        <v>0.858294758727089</v>
+        <v>0.857944993837184</v>
       </c>
     </row>
     <row r="19">
@@ -4580,22 +4580,22 @@
         <v>53</v>
       </c>
       <c r="F19" t="n">
-        <v>0.387147973332209</v>
+        <v>0.408700483976179</v>
       </c>
       <c r="G19" t="n">
-        <v>0.074486483827721</v>
+        <v>0.071002131909869</v>
       </c>
       <c r="H19" t="n">
-        <v>5.19756005972359</v>
+        <v>5.75617200473626</v>
       </c>
       <c r="I19" t="n">
-        <v>0.000000201921311671072</v>
+        <v>0.00000000860427173954292</v>
       </c>
       <c r="J19" t="n">
-        <v>0.241157147694851</v>
+        <v>0.269538862607274</v>
       </c>
       <c r="K19" t="n">
-        <v>0.533138798969568</v>
+        <v>0.547862105345085</v>
       </c>
     </row>
     <row r="20">
@@ -4615,22 +4615,22 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.041772063263636</v>
+        <v>-0.0441210033431255</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0664059162170568</v>
+        <v>0.0652514326426829</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.6290412909461</v>
+        <v>-0.676169113170776</v>
       </c>
       <c r="I20" t="n">
-        <v>0.529322024292697</v>
+        <v>0.498933280338493</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.171925267409452</v>
+        <v>-0.172011461262425</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0883811408821796</v>
+        <v>0.0837694545761742</v>
       </c>
     </row>
     <row r="21">
@@ -4650,22 +4650,22 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.128927976881827</v>
+        <v>0.131605750951696</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0795069248095121</v>
+        <v>0.0787892500923663</v>
       </c>
       <c r="H21" t="n">
-        <v>1.62159431006445</v>
+        <v>1.67035161265542</v>
       </c>
       <c r="I21" t="n">
-        <v>0.104890241771709</v>
+        <v>0.0948498171330225</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.0269027322663506</v>
+        <v>-0.0228183415982614</v>
       </c>
       <c r="K21" t="n">
-        <v>0.284758686030005</v>
+        <v>0.286029843501653</v>
       </c>
     </row>
     <row r="22">
@@ -4685,22 +4685,22 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0587749861293856</v>
+        <v>0.049133556452701</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0717666725923664</v>
+        <v>0.0715256562349966</v>
       </c>
       <c r="H22" t="n">
-        <v>0.818973264417965</v>
+        <v>0.686936115500616</v>
       </c>
       <c r="I22" t="n">
-        <v>0.412801667475442</v>
+        <v>0.492122986992946</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.0818851074419302</v>
+        <v>-0.0910541537384851</v>
       </c>
       <c r="K22" t="n">
-        <v>0.199435079700701</v>
+        <v>0.189321266643887</v>
       </c>
     </row>
     <row r="23">
@@ -4720,22 +4720,22 @@
         <v>59</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.286196344574706</v>
+        <v>-0.295746289867655</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0721019516169202</v>
+        <v>0.071695810232923</v>
       </c>
       <c r="H23" t="n">
-        <v>-3.96932868190969</v>
+        <v>-4.1250149612208</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0000720754053462613</v>
+        <v>0.0000370710657999762</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.427513572958919</v>
+        <v>-0.436267495766602</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.144879116190493</v>
+        <v>-0.155225083968708</v>
       </c>
     </row>
     <row r="24">
@@ -4755,22 +4755,22 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0615237124898876</v>
+        <v>0.0620487422425999</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0610299121975214</v>
+        <v>0.0607113031558109</v>
       </c>
       <c r="H24" t="n">
-        <v>1.0080911191674</v>
+        <v>1.02202949067584</v>
       </c>
       <c r="I24" t="n">
-        <v>0.313410720662256</v>
+        <v>0.306766942787875</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.058092717396896</v>
+        <v>-0.0569432253972823</v>
       </c>
       <c r="K24" t="n">
-        <v>0.181140142376671</v>
+        <v>0.181040709882482</v>
       </c>
     </row>
     <row r="25">
@@ -4790,22 +4790,22 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.288528003382335</v>
+        <v>0.286109941432456</v>
       </c>
       <c r="G25" t="n">
-        <v>0.070338339357588</v>
+        <v>0.070626899794324</v>
       </c>
       <c r="H25" t="n">
-        <v>4.10200192409303</v>
+        <v>4.05100524397433</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0000409590866428111</v>
+        <v>0.0000509980644207708</v>
       </c>
       <c r="J25" t="n">
-        <v>0.150667391509106</v>
+        <v>0.147683761495862</v>
       </c>
       <c r="K25" t="n">
-        <v>0.426388615255563</v>
+        <v>0.42453612136905</v>
       </c>
     </row>
     <row r="26">
@@ -4825,22 +4825,22 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.270448125145843</v>
+        <v>0.278952983304889</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0673682618334512</v>
+        <v>0.0658885438198341</v>
       </c>
       <c r="H26" t="n">
-        <v>4.01447384548007</v>
+        <v>4.23370994611232</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0000595785494550416</v>
+        <v>0.0000229867385252991</v>
       </c>
       <c r="J26" t="n">
-        <v>0.138408758251215</v>
+        <v>0.149813810424225</v>
       </c>
       <c r="K26" t="n">
-        <v>0.402487492040472</v>
+        <v>0.408092156185553</v>
       </c>
     </row>
     <row r="27">
@@ -4860,22 +4860,22 @@
         <v>64</v>
       </c>
       <c r="F27" t="n">
-        <v>0.205830494359346</v>
+        <v>0.200926829762536</v>
       </c>
       <c r="G27" t="n">
-        <v>0.054199050517078</v>
+        <v>0.0531695110818365</v>
       </c>
       <c r="H27" t="n">
-        <v>3.79767712525682</v>
+        <v>3.77898584497565</v>
       </c>
       <c r="I27" t="n">
-        <v>0.000146058402587412</v>
+        <v>0.000157468374127445</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0996023073496059</v>
+        <v>0.0967165029665334</v>
       </c>
       <c r="K27" t="n">
-        <v>0.312058681369086</v>
+        <v>0.305137156558539</v>
       </c>
     </row>
     <row r="28">
@@ -4895,22 +4895,22 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.0032300180446722</v>
+        <v>-0.00966967685099971</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06236575909877</v>
+        <v>0.0607297680039672</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.0517915293800361</v>
+        <v>-0.159224663107029</v>
       </c>
       <c r="I28" t="n">
-        <v>0.958694805070022</v>
+        <v>0.873491873384563</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.125464659746763</v>
+        <v>-0.128697834928248</v>
       </c>
       <c r="K28" t="n">
-        <v>0.119004623657418</v>
+        <v>0.109358481226249</v>
       </c>
     </row>
     <row r="29">
@@ -4930,22 +4930,22 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.22140338030981</v>
+        <v>-0.185963824389904</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0595952169473483</v>
+        <v>0.0582213759674994</v>
       </c>
       <c r="H29" t="n">
-        <v>-3.71511996517132</v>
+        <v>-3.19408157742122</v>
       </c>
       <c r="I29" t="n">
-        <v>0.000203107311424588</v>
+        <v>0.00140276471604373</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.338207859177463</v>
+        <v>-0.300075624416569</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.104598901442156</v>
+        <v>-0.0718520243632396</v>
       </c>
     </row>
     <row r="30">
@@ -4965,22 +4965,22 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.198699210620665</v>
+        <v>-0.188738346572451</v>
       </c>
       <c r="G30" t="n">
-        <v>0.123238663025223</v>
+        <v>0.123902017431907</v>
       </c>
       <c r="H30" t="n">
-        <v>-1.61231228693222</v>
+        <v>-1.52328711416</v>
       </c>
       <c r="I30" t="n">
-        <v>0.106894000921869</v>
+        <v>0.127686889561571</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.44024255165297</v>
+        <v>-0.431581838350842</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0428441304116388</v>
+        <v>0.0541051452059393</v>
       </c>
     </row>
     <row r="31">
@@ -5000,22 +5000,22 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.344778866016178</v>
+        <v>0.282736394363773</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0625825454130558</v>
+        <v>0.0492966343207682</v>
       </c>
       <c r="H31" t="n">
-        <v>5.50918572807444</v>
+        <v>5.735409693977</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0000000360497387497105</v>
+        <v>0.00000000972769131912798</v>
       </c>
       <c r="J31" t="n">
-        <v>0.222119330945746</v>
+        <v>0.186116766536026</v>
       </c>
       <c r="K31" t="n">
-        <v>0.46743840108661</v>
+        <v>0.37935602219152</v>
       </c>
     </row>
     <row r="32">
@@ -5035,22 +5035,22 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.183373647438199</v>
+        <v>0.108375486338317</v>
       </c>
       <c r="G32" t="n">
-        <v>0.052532545814274</v>
+        <v>0.0431879922350583</v>
       </c>
       <c r="H32" t="n">
-        <v>3.4906674442641</v>
+        <v>2.50938931702275</v>
       </c>
       <c r="I32" t="n">
-        <v>0.00048181558276772</v>
+        <v>0.0120940110179037</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0804117496260215</v>
+        <v>0.023728576993007</v>
       </c>
       <c r="K32" t="n">
-        <v>0.286335545250376</v>
+        <v>0.193022395683627</v>
       </c>
     </row>
     <row r="33">
@@ -5070,22 +5070,22 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.219609549602294</v>
+        <v>0.200962996768404</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0468524898400165</v>
+        <v>0.047629275919264</v>
       </c>
       <c r="H33" t="n">
-        <v>4.68725462301316</v>
+        <v>4.21931664695165</v>
       </c>
       <c r="I33" t="n">
-        <v>0.00000276894383355319</v>
+        <v>0.0000245043913151832</v>
       </c>
       <c r="J33" t="n">
-        <v>0.127780356929833</v>
+        <v>0.107611331356926</v>
       </c>
       <c r="K33" t="n">
-        <v>0.311438742274756</v>
+        <v>0.294314662179883</v>
       </c>
     </row>
     <row r="34">
@@ -5105,22 +5105,22 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.452525321401349</v>
+        <v>0.450023230122637</v>
       </c>
       <c r="G34" t="n">
-        <v>0.087021097903977</v>
+        <v>0.0878114126915618</v>
       </c>
       <c r="H34" t="n">
-        <v>5.2001794082245</v>
+        <v>5.12488315958823</v>
       </c>
       <c r="I34" t="n">
-        <v>0.000000199096253261644</v>
+        <v>0.00000029772231391334</v>
       </c>
       <c r="J34" t="n">
-        <v>0.28196710361442</v>
+        <v>0.277916023815593</v>
       </c>
       <c r="K34" t="n">
-        <v>0.623083539188278</v>
+        <v>0.622130436429682</v>
       </c>
     </row>
     <row r="35">
@@ -5140,22 +5140,22 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.536599960824866</v>
+        <v>0.539679093605887</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0775439551028141</v>
+        <v>0.0772455062297682</v>
       </c>
       <c r="H35" t="n">
-        <v>6.9199457277282</v>
+        <v>6.98654355375187</v>
       </c>
       <c r="I35" t="n">
-        <v>0.00000000000451816362101454</v>
+        <v>0.0000000000028173019472888</v>
       </c>
       <c r="J35" t="n">
-        <v>0.38461660160456</v>
+        <v>0.388280683427977</v>
       </c>
       <c r="K35" t="n">
-        <v>0.688583320045173</v>
+        <v>0.691077503783797</v>
       </c>
     </row>
     <row r="36">
@@ -5175,22 +5175,22 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.686674330963746</v>
+        <v>0.685565164295306</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0723131185261309</v>
+        <v>0.0730411334716966</v>
       </c>
       <c r="H36" t="n">
-        <v>9.49584729519873</v>
+        <v>9.38601486189918</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.544943223042753</v>
+        <v>0.542407173300797</v>
       </c>
       <c r="K36" t="n">
-        <v>0.828405438884739</v>
+        <v>0.828723155289814</v>
       </c>
     </row>
     <row r="37">
@@ -5210,22 +5210,22 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.740476265463582</v>
+        <v>0.74134958463441</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0682844545396963</v>
+        <v>0.0684149928369708</v>
       </c>
       <c r="H37" t="n">
-        <v>10.8439947343083</v>
+        <v>10.8360690236569</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.606641193861814</v>
+        <v>0.607258662671381</v>
       </c>
       <c r="K37" t="n">
-        <v>0.874311337065349</v>
+        <v>0.875440506597438</v>
       </c>
     </row>
     <row r="38">
@@ -5245,22 +5245,22 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.760975338979661</v>
+        <v>0.762112132744734</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0690937823513016</v>
+        <v>0.0679917870906059</v>
       </c>
       <c r="H38" t="n">
-        <v>11.0136587270696</v>
+        <v>11.2088851515131</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.625554014015461</v>
+        <v>0.628850678802631</v>
       </c>
       <c r="K38" t="n">
-        <v>0.896396663943861</v>
+        <v>0.895373586686837</v>
       </c>
     </row>
     <row r="39">
@@ -5280,22 +5280,22 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.398733309059897</v>
+        <v>0.398237604514334</v>
       </c>
       <c r="G39" t="n">
-        <v>0.12361034248071</v>
+        <v>0.117724480267087</v>
       </c>
       <c r="H39" t="n">
-        <v>3.22572772680507</v>
+        <v>3.3827934819575</v>
       </c>
       <c r="I39" t="n">
-        <v>0.00125652829485801</v>
+        <v>0.000717525668512797</v>
       </c>
       <c r="J39" t="n">
-        <v>0.156461489681044</v>
+        <v>0.167501863092148</v>
       </c>
       <c r="K39" t="n">
-        <v>0.64100512843875</v>
+        <v>0.62897334593652</v>
       </c>
     </row>
     <row r="40">
@@ -5315,22 +5315,22 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.592298046580159</v>
+        <v>0.593326562126263</v>
       </c>
       <c r="G40" t="n">
-        <v>0.08494389412469</v>
+        <v>0.0826145433968717</v>
       </c>
       <c r="H40" t="n">
-        <v>6.97281485248038</v>
+        <v>7.18186577968462</v>
       </c>
       <c r="I40" t="n">
-        <v>0.00000000000310662606750611</v>
+        <v>0.000000000000687672141452822</v>
       </c>
       <c r="J40" t="n">
-        <v>0.425811073389183</v>
+        <v>0.431405032469173</v>
       </c>
       <c r="K40" t="n">
-        <v>0.758785019771135</v>
+        <v>0.755248091783353</v>
       </c>
     </row>
     <row r="41">
@@ -5350,22 +5350,22 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.730517911560039</v>
+        <v>0.72888878032237</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0730180496980416</v>
+        <v>0.0724983963442971</v>
       </c>
       <c r="H41" t="n">
-        <v>10.0046209749647</v>
+        <v>10.0538607345307</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.587405163930522</v>
+        <v>0.586794534550637</v>
       </c>
       <c r="K41" t="n">
-        <v>0.873630659189556</v>
+        <v>0.870983026094102</v>
       </c>
     </row>
     <row r="42">
@@ -5385,22 +5385,22 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.276989021339099</v>
+        <v>0.276969997957641</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0384544190718383</v>
+        <v>0.0384469824568356</v>
       </c>
       <c r="H42" t="n">
-        <v>7.20304786874155</v>
+        <v>7.20394632448969</v>
       </c>
       <c r="I42" t="n">
-        <v>0.000000000000588862292261183</v>
+        <v>0.000000000000584865489372532</v>
       </c>
       <c r="J42" t="n">
-        <v>0.201619744911886</v>
+        <v>0.201615297027999</v>
       </c>
       <c r="K42" t="n">
-        <v>0.352358297766313</v>
+        <v>0.352324698887282</v>
       </c>
     </row>
     <row r="43">
@@ -5420,22 +5420,22 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.105933232643189</v>
+        <v>0.105946342839942</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0255458423273439</v>
+        <v>0.0255764272831922</v>
       </c>
       <c r="H43" t="n">
-        <v>4.14678957482641</v>
+        <v>4.14234332523707</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0000337169671760229</v>
+        <v>0.0000343775205660091</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0558643017268559</v>
+        <v>0.0558174665116782</v>
       </c>
       <c r="K43" t="n">
-        <v>0.156002163559522</v>
+        <v>0.156075219168207</v>
       </c>
     </row>
     <row r="44">
@@ -5455,22 +5455,22 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.154281472945665</v>
+        <v>0.154284380071069</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0285993161071895</v>
+        <v>0.0286072307080381</v>
       </c>
       <c r="H44" t="n">
-        <v>5.39458609315768</v>
+        <v>5.39319522555945</v>
       </c>
       <c r="I44" t="n">
-        <v>0.000000068681689890937</v>
+        <v>0.0000000692156794102061</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0982278433930972</v>
+        <v>0.098215238185886</v>
       </c>
       <c r="K44" t="n">
-        <v>0.210335102498232</v>
+        <v>0.210353521956252</v>
       </c>
     </row>
     <row r="45">
@@ -5490,22 +5490,22 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.374302649250007</v>
+        <v>0.375186818023748</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0504616854359515</v>
+        <v>0.0504532053888938</v>
       </c>
       <c r="H45" t="n">
-        <v>7.41756138377681</v>
+        <v>7.43633263995429</v>
       </c>
       <c r="I45" t="n">
-        <v>0.000000000000119237952844742</v>
+        <v>0.000000000000103472785895065</v>
       </c>
       <c r="J45" t="n">
-        <v>0.275399563196352</v>
+        <v>0.276300352556914</v>
       </c>
       <c r="K45" t="n">
-        <v>0.473205735303661</v>
+        <v>0.474073283490582</v>
       </c>
     </row>
     <row r="46">
@@ -5525,22 +5525,22 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0288022593779287</v>
+        <v>0.0273658566077634</v>
       </c>
       <c r="G46" t="n">
-        <v>0.033705476069427</v>
+        <v>0.0339543822060692</v>
       </c>
       <c r="H46" t="n">
-        <v>0.854527594228351</v>
+        <v>0.805959491227965</v>
       </c>
       <c r="I46" t="n">
-        <v>0.392812726757264</v>
+        <v>0.420266206772614</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.0372592597999249</v>
+        <v>-0.0391835096334398</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0948637785557824</v>
+        <v>0.0939152228489666</v>
       </c>
     </row>
     <row r="47">
@@ -5560,22 +5560,22 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.350132206574389</v>
+        <v>0.351067026070308</v>
       </c>
       <c r="G47" t="n">
-        <v>0.042899959415127</v>
+        <v>0.043058364883958</v>
       </c>
       <c r="H47" t="n">
-        <v>8.16159761799049</v>
+        <v>8.15328280617324</v>
       </c>
       <c r="I47" t="n">
-        <v>0.000000000000000222044604925031</v>
+        <v>0.000000000000000444089209850063</v>
       </c>
       <c r="J47" t="n">
-        <v>0.26604983118251</v>
+        <v>0.266674181664566</v>
       </c>
       <c r="K47" t="n">
-        <v>0.434214581966268</v>
+        <v>0.43545987047605</v>
       </c>
     </row>
     <row r="48">
@@ -5595,22 +5595,22 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.90883102594392</v>
+        <v>0.925522928512805</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0309000769203886</v>
+        <v>0.0282165117914739</v>
       </c>
       <c r="H48" t="n">
-        <v>29.4119340960039</v>
+        <v>32.8007563568671</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0.848267988060441</v>
+        <v>0.870219581632167</v>
       </c>
       <c r="K48" t="n">
-        <v>0.969394063827399</v>
+        <v>0.980826275393444</v>
       </c>
     </row>
     <row r="49">
@@ -5630,22 +5630,22 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.76102335821037</v>
+        <v>0.754634296892748</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0557030599872814</v>
+        <v>0.0546373039757736</v>
       </c>
       <c r="H49" t="n">
-        <v>13.6621463593586</v>
+        <v>13.8117044945584</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.651847366806624</v>
+        <v>0.647547148887865</v>
       </c>
       <c r="K49" t="n">
-        <v>0.870199349614116</v>
+        <v>0.861721444897631</v>
       </c>
     </row>
     <row r="50">
@@ -5665,22 +5665,22 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.844223924270947</v>
+        <v>0.825854616119126</v>
       </c>
       <c r="G50" t="n">
-        <v>0.054899022440056</v>
+        <v>0.0565137641779197</v>
       </c>
       <c r="H50" t="n">
-        <v>15.3777587787242</v>
+        <v>14.6133358506987</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.736623817501981</v>
+        <v>0.715089673699614</v>
       </c>
       <c r="K50" t="n">
-        <v>0.951824031039913</v>
+        <v>0.936619558538638</v>
       </c>
     </row>
     <row r="51">
@@ -5762,22 +5762,22 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.158786504380041</v>
+        <v>-0.158648332364731</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0613021446137592</v>
+        <v>0.0612676813452182</v>
       </c>
       <c r="H53" t="n">
-        <v>-2.59022755860325</v>
+        <v>-2.58942935135432</v>
       </c>
       <c r="I53" t="n">
-        <v>0.00959125070215361</v>
+        <v>0.00961351470962768</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.278936499998075</v>
+        <v>-0.278730781217636</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.0386365087620068</v>
+        <v>-0.0385658835118272</v>
       </c>
     </row>
     <row r="54">
@@ -5828,22 +5828,22 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>2.74682936047431</v>
+        <v>2.58244995182459</v>
       </c>
       <c r="G55" t="n">
-        <v>0.15151304870479</v>
+        <v>0.138223578615887</v>
       </c>
       <c r="H55" t="n">
-        <v>18.12932538785</v>
+        <v>18.6831362469715</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>2.44986924182505</v>
+        <v>2.31153671592321</v>
       </c>
       <c r="K55" t="n">
-        <v>3.04378947912356</v>
+        <v>2.85336318772597</v>
       </c>
     </row>
     <row r="56">
@@ -5863,22 +5863,22 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>2.56784841804974</v>
+        <v>2.61649125225393</v>
       </c>
       <c r="G56" t="n">
-        <v>0.14127515693432</v>
+        <v>0.148055641366355</v>
       </c>
       <c r="H56" t="n">
-        <v>18.1762206022079</v>
+        <v>17.6723509358186</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>2.29095419854823</v>
+        <v>2.32630752746789</v>
       </c>
       <c r="K56" t="n">
-        <v>2.84474263755125</v>
+        <v>2.90667497703996</v>
       </c>
     </row>
     <row r="57">
@@ -5898,22 +5898,22 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>2.6246213972073</v>
+        <v>2.93356299370237</v>
       </c>
       <c r="G57" t="n">
-        <v>0.147701464155542</v>
+        <v>0.171542401457086</v>
       </c>
       <c r="H57" t="n">
-        <v>17.7697723730305</v>
+        <v>17.1010955238157</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>2.33513184699861</v>
+        <v>2.59734606502497</v>
       </c>
       <c r="K57" t="n">
-        <v>2.914110947416</v>
+        <v>3.26977992237977</v>
       </c>
     </row>
     <row r="58">
@@ -5933,22 +5933,22 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>2.22855766156561</v>
+        <v>2.22854810498855</v>
       </c>
       <c r="G58" t="n">
-        <v>0.096321652774816</v>
+        <v>0.096254664725376</v>
       </c>
       <c r="H58" t="n">
-        <v>23.1366219055191</v>
+        <v>23.1526244608177</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>2.0397706911956</v>
+        <v>2.03989242878283</v>
       </c>
       <c r="K58" t="n">
-        <v>2.41734463193562</v>
+        <v>2.41720378119426</v>
       </c>
     </row>
     <row r="59">
@@ -5968,22 +5968,22 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>2.97540095539099</v>
+        <v>2.97540350003085</v>
       </c>
       <c r="G59" t="n">
-        <v>0.140667690173937</v>
+        <v>0.140567383471335</v>
       </c>
       <c r="H59" t="n">
-        <v>21.1519855889571</v>
+        <v>21.1670974201323</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>2.69969734886164</v>
+        <v>2.699896491026</v>
       </c>
       <c r="K59" t="n">
-        <v>3.25110456192035</v>
+        <v>3.2509105090357</v>
       </c>
     </row>
     <row r="60">
@@ -6003,22 +6003,22 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>2.58400254645908</v>
+        <v>2.58399680465017</v>
       </c>
       <c r="G60" t="n">
-        <v>0.124150155345389</v>
+        <v>0.12419886231658</v>
       </c>
       <c r="H60" t="n">
-        <v>20.8135264854911</v>
+        <v>20.8053178302361</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2.34067271330706</v>
+        <v>2.34057150758883</v>
       </c>
       <c r="K60" t="n">
-        <v>2.82733237961109</v>
+        <v>2.82742210171152</v>
       </c>
     </row>
     <row r="61">
@@ -6038,22 +6038,22 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>3.01399093610163</v>
+        <v>3.01398687478255</v>
       </c>
       <c r="G61" t="n">
-        <v>0.136540979608226</v>
+        <v>0.136547476754917</v>
       </c>
       <c r="H61" t="n">
-        <v>22.0738927225336</v>
+        <v>22.0728126686091</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2.74637553365569</v>
+        <v>2.74635873816309</v>
       </c>
       <c r="K61" t="n">
-        <v>3.28160633854757</v>
+        <v>3.281615011402</v>
       </c>
     </row>
     <row r="62">
@@ -6073,22 +6073,22 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>2.63363117349914</v>
+        <v>2.63363716640035</v>
       </c>
       <c r="G62" t="n">
-        <v>0.116339207604104</v>
+        <v>0.116135479304181</v>
       </c>
       <c r="H62" t="n">
-        <v>22.6375202972093</v>
+        <v>22.6772833089392</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>2.40561051660517</v>
+        <v>2.40601580963686</v>
       </c>
       <c r="K62" t="n">
-        <v>2.86165183039312</v>
+        <v>2.86125852316384</v>
       </c>
     </row>
     <row r="63">
@@ -6108,22 +6108,22 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>2.24889783386178</v>
+        <v>2.24882038865376</v>
       </c>
       <c r="G63" t="n">
-        <v>0.150822368262277</v>
+        <v>0.147083274673218</v>
       </c>
       <c r="H63" t="n">
-        <v>14.9109038650751</v>
+        <v>15.2894365022133</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>1.95329142400468</v>
+        <v>1.96054246756604</v>
       </c>
       <c r="K63" t="n">
-        <v>2.54450424371888</v>
+        <v>2.53709830974148</v>
       </c>
     </row>
     <row r="64">
@@ -6143,22 +6143,22 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>2.00877178164537</v>
+        <v>2.00874860684562</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0951690261176998</v>
+        <v>0.094699201826353</v>
       </c>
       <c r="H64" t="n">
-        <v>21.1074113457989</v>
+        <v>21.2118852968687</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1.82224391801093</v>
+        <v>1.82314158190128</v>
       </c>
       <c r="K64" t="n">
-        <v>2.19529964527982</v>
+        <v>2.19435563178996</v>
       </c>
     </row>
     <row r="65">
@@ -6178,22 +6178,22 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>2.72289575027685</v>
+        <v>2.72279434504302</v>
       </c>
       <c r="G65" t="n">
-        <v>0.134024534855223</v>
+        <v>0.133801635723188</v>
       </c>
       <c r="H65" t="n">
-        <v>20.3163976895588</v>
+        <v>20.3494847452837</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2.46021248891588</v>
+        <v>2.46054795795303</v>
       </c>
       <c r="K65" t="n">
-        <v>2.98557901163782</v>
+        <v>2.98504073213302</v>
       </c>
     </row>
     <row r="66">
@@ -6213,22 +6213,22 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>3.36725997624184</v>
+        <v>3.36727509747624</v>
       </c>
       <c r="G66" t="n">
-        <v>0.149173478443554</v>
+        <v>0.149175072852716</v>
       </c>
       <c r="H66" t="n">
-        <v>22.5727790983702</v>
+        <v>22.5726392022668</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>3.07488533104391</v>
+        <v>3.07489732729378</v>
       </c>
       <c r="K66" t="n">
-        <v>3.65963462143977</v>
+        <v>3.6596528676587</v>
       </c>
     </row>
     <row r="67">
@@ -6248,22 +6248,22 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>3.35724318794809</v>
+        <v>3.35725336778373</v>
       </c>
       <c r="G67" t="n">
-        <v>0.149603289633552</v>
+        <v>0.149604987462933</v>
       </c>
       <c r="H67" t="n">
-        <v>22.4409716936809</v>
+        <v>22.4407850614977</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>3.06402612829761</v>
+        <v>3.06403298044882</v>
       </c>
       <c r="K67" t="n">
-        <v>3.65046024759857</v>
+        <v>3.65047375511865</v>
       </c>
     </row>
     <row r="68">
@@ -6283,22 +6283,22 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>3.3463500170711</v>
+        <v>3.34635985990466</v>
       </c>
       <c r="G68" t="n">
-        <v>0.152588741351541</v>
+        <v>0.152589237986087</v>
       </c>
       <c r="H68" t="n">
-        <v>21.930517202194</v>
+        <v>21.9305103300258</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>3.04728157957578</v>
+        <v>3.04729044902351</v>
       </c>
       <c r="K68" t="n">
-        <v>3.64541845456641</v>
+        <v>3.6454292707858</v>
       </c>
     </row>
     <row r="69">
@@ -6318,22 +6318,22 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>2.78251392661709</v>
+        <v>2.78251867453222</v>
       </c>
       <c r="G69" t="n">
-        <v>0.111817802801225</v>
+        <v>0.111818105934657</v>
       </c>
       <c r="H69" t="n">
-        <v>24.8843552360215</v>
+        <v>24.8843302368064</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>2.56335506029629</v>
+        <v>2.56335921408081</v>
       </c>
       <c r="K69" t="n">
-        <v>3.0016727929379</v>
+        <v>3.00167813498364</v>
       </c>
     </row>
     <row r="70">
@@ -6353,22 +6353,22 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>2.50595311842982</v>
+        <v>2.50595581654391</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0887709851978346</v>
+        <v>0.088808532653519</v>
       </c>
       <c r="H70" t="n">
-        <v>28.2294165469164</v>
+        <v>28.2175117825755</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>2.33196518456993</v>
+        <v>2.33189429102316</v>
       </c>
       <c r="K70" t="n">
-        <v>2.67994105228972</v>
+        <v>2.68001734206466</v>
       </c>
     </row>
     <row r="71">
@@ -6388,22 +6388,22 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>2.2689375372722</v>
+        <v>2.26893832349099</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0776561284015433</v>
+        <v>0.0776639747532937</v>
       </c>
       <c r="H71" t="n">
-        <v>29.2177524681634</v>
+        <v>29.214810736876</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>2.11673432242636</v>
+        <v>2.11671973007831</v>
       </c>
       <c r="K71" t="n">
-        <v>2.42114075211805</v>
+        <v>2.42115691690367</v>
       </c>
     </row>
     <row r="72">
@@ -6609,22 +6609,22 @@
         <v>118</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0796868587411875</v>
+        <v>0.0821188925677479</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0269348330729251</v>
+        <v>0.0267500732109331</v>
       </c>
       <c r="H78" t="n">
-        <v>2.95850575815481</v>
+        <v>3.06985674095968</v>
       </c>
       <c r="I78" t="n">
-        <v>0.00309134466237571</v>
+        <v>0.00214161470020313</v>
       </c>
       <c r="J78" t="n">
-        <v>0.026895555988656</v>
+        <v>0.0296897124905093</v>
       </c>
       <c r="K78" t="n">
-        <v>0.132478161493719</v>
+        <v>0.134548072644986</v>
       </c>
     </row>
     <row r="79">
@@ -6644,22 +6644,22 @@
         <v>122</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.0589079350876494</v>
+        <v>-0.05942336443714</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0219890640122727</v>
+        <v>0.0220823507090664</v>
       </c>
       <c r="H79" t="n">
-        <v>-2.67896510077787</v>
+        <v>-2.69098907177226</v>
       </c>
       <c r="I79" t="n">
-        <v>0.00738500905057848</v>
+        <v>0.0071240528465486</v>
       </c>
       <c r="J79" t="n">
-        <v>-0.10200570860545</v>
+        <v>-0.102703976520893</v>
       </c>
       <c r="K79" t="n">
-        <v>-0.015810161569849</v>
+        <v>-0.0161427523533873</v>
       </c>
     </row>
   </sheetData>
@@ -6743,58 +6743,58 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>3.12573249388515</v>
+        <v>3.4695402141526</v>
       </c>
       <c r="C2" t="n">
-        <v>2.40781323791666</v>
+        <v>2.76872969172121</v>
       </c>
       <c r="D2" t="n">
-        <v>2.34965382738973</v>
+        <v>2.47249695645676</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.613095873555397</v>
+        <v>-0.687798764575235</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.510748115307633</v>
+        <v>-0.569773037428758</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.46786362054478</v>
+        <v>-0.524601389178318</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.365566146916823</v>
+        <v>-0.408486291502068</v>
       </c>
       <c r="I2" t="n">
-        <v>0.429344835868083</v>
+        <v>0.502415348702539</v>
       </c>
       <c r="J2" t="n">
-        <v>0.800691234362743</v>
+        <v>0.939585727905451</v>
       </c>
       <c r="K2" t="n">
-        <v>0.655316568663319</v>
+        <v>0.767706239991556</v>
       </c>
       <c r="L2" t="n">
-        <v>0.460701180675361</v>
+        <v>0.542026015081971</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0566288573518553</v>
+        <v>0.0387790173249898</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0634648714887437</v>
+        <v>0.043459441311558</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0630404089595752</v>
+        <v>0.0431690247985282</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.282889352868593</v>
+        <v>-0.26017663523441</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.353823065907762</v>
+        <v>-0.325886294754078</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.296072342355636</v>
+        <v>-0.272298098882427</v>
       </c>
       <c r="S2" t="n">
-        <v>0.14728196634194</v>
+        <v>0.158483223715995</v>
       </c>
       <c r="T2" t="s">
         <v>144</v>
@@ -6805,58 +6805,58 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>2.40781323791666</v>
+        <v>2.76872969172121</v>
       </c>
       <c r="C3" t="n">
-        <v>3.46643052659834</v>
+        <v>3.45484362894783</v>
       </c>
       <c r="D3" t="n">
-        <v>2.76240261205933</v>
+        <v>2.75084172482768</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.720794536969599</v>
+        <v>-0.765228662845301</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.600467997193259</v>
+        <v>-0.63391602604314</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.550050255239606</v>
+        <v>-0.583659116944807</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.429782833263293</v>
+        <v>-0.454472201371002</v>
       </c>
       <c r="I3" t="n">
-        <v>0.504765119972482</v>
+        <v>0.558975452242972</v>
       </c>
       <c r="J3" t="n">
-        <v>0.941343584945793</v>
+        <v>1.04536089220464</v>
       </c>
       <c r="K3" t="n">
-        <v>0.770431873793233</v>
+        <v>0.854131832949042</v>
       </c>
       <c r="L3" t="n">
-        <v>0.541629634987651</v>
+        <v>0.603045344236255</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0665764895420714</v>
+        <v>0.0431446188950092</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0746133429234878</v>
+        <v>0.048351948092529</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0741143177540657</v>
+        <v>0.048028837538425</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.33258273120007</v>
+        <v>-0.289466380194754</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.415976919696403</v>
+        <v>-0.36257339561853</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.348081492834339</v>
+        <v>-0.30295243439671</v>
       </c>
       <c r="S3" t="n">
-        <v>0.17315405520148</v>
+        <v>0.176324692066727</v>
       </c>
       <c r="T3" t="s">
         <v>145</v>
@@ -6867,58 +6867,58 @@
         <v>18</v>
       </c>
       <c r="B4" t="n">
-        <v>2.34965382738973</v>
+        <v>2.47249695645676</v>
       </c>
       <c r="C4" t="n">
-        <v>2.76240261205933</v>
+        <v>2.75084172482768</v>
       </c>
       <c r="D4" t="n">
-        <v>3.45426867788756</v>
+        <v>3.07435432176839</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.703384139551293</v>
+        <v>-0.68335509440876</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.585964021466609</v>
+        <v>-0.566091897568544</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.536764092467029</v>
+        <v>-0.521212090356557</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.419401664224278</v>
+        <v>-0.405847178958614</v>
       </c>
       <c r="I4" t="n">
-        <v>0.492572794849476</v>
+        <v>0.499169387512731</v>
       </c>
       <c r="J4" t="n">
-        <v>0.918605946020305</v>
+        <v>0.933515334524448</v>
       </c>
       <c r="K4" t="n">
-        <v>0.751822513679512</v>
+        <v>0.762746310589277</v>
       </c>
       <c r="L4" t="n">
-        <v>0.52854686768712</v>
+        <v>0.538524140759529</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0649683708866271</v>
+        <v>0.0385284772379067</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0728110984746497</v>
+        <v>0.0431786623501024</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0723241269849876</v>
+        <v>0.0428901221347069</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.324549377411065</v>
+        <v>-0.258495708760633</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.405929224941105</v>
+        <v>-0.323780837053007</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.339673774943355</v>
+        <v>-0.270538859115343</v>
       </c>
       <c r="S4" t="n">
-        <v>0.168971613796855</v>
+        <v>0.157459309150594</v>
       </c>
       <c r="T4" t="s">
         <v>146</v>
@@ -6929,58 +6929,58 @@
         <v>21</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.613095873555396</v>
+        <v>-0.687798764575235</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.720794536969599</v>
+        <v>-0.765228662845301</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.703384139551293</v>
+        <v>-0.68335509440876</v>
       </c>
       <c r="E5" t="n">
-        <v>3.19227300525079</v>
+        <v>3.19226689508358</v>
       </c>
       <c r="F5" t="n">
-        <v>1.45593652848484</v>
+        <v>1.45440059186865</v>
       </c>
       <c r="G5" t="n">
-        <v>1.33369015975719</v>
+        <v>1.33909560613678</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04208139182869</v>
+        <v>1.04270062832715</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.254728566690689</v>
+        <v>-0.255723247797612</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.475046893433899</v>
+        <v>-0.478237606682917</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.388796688160369</v>
+        <v>-0.3907530563151</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.273332160124549</v>
+        <v>-0.275884590957479</v>
       </c>
       <c r="M5" t="n">
-        <v>0.387428972496969</v>
+        <v>0.387563277919559</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4341978824994</v>
+        <v>0.434340132708986</v>
       </c>
       <c r="O5" t="n">
-        <v>0.431293902281021</v>
+        <v>0.431437666800463</v>
       </c>
       <c r="P5" t="n">
-        <v>0.340542042029644</v>
+        <v>0.341379028148008</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.42593200542754</v>
+        <v>0.427596991903864</v>
       </c>
       <c r="R5" t="n">
-        <v>0.356411717273515</v>
+        <v>0.357283659538768</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0017290311569013</v>
+        <v>0.0017393363924291</v>
       </c>
       <c r="T5" t="s">
         <v>147</v>
@@ -6991,58 +6991,58 @@
         <v>23</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.510748115307633</v>
+        <v>-0.569773037428758</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.600467997193259</v>
+        <v>-0.63391602604314</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.585964021466609</v>
+        <v>-0.566091897568543</v>
       </c>
       <c r="E6" t="n">
-        <v>1.45593652848484</v>
+        <v>1.45440059186865</v>
       </c>
       <c r="F6" t="n">
-        <v>2.6173678033313</v>
+        <v>2.61736231668994</v>
       </c>
       <c r="G6" t="n">
-        <v>1.11104929079052</v>
+        <v>1.10930785312947</v>
       </c>
       <c r="H6" t="n">
-        <v>0.868120517248219</v>
+        <v>0.863774020440028</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.212205204706093</v>
+        <v>-0.211841339565033</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.395744476466758</v>
+        <v>-0.396172409441104</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.323892533420901</v>
+        <v>-0.32370013912241</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.227703189106464</v>
+        <v>-0.228543012092659</v>
       </c>
       <c r="M6" t="n">
-        <v>0.322753138707139</v>
+        <v>0.321057724191243</v>
       </c>
       <c r="N6" t="n">
-        <v>0.361714635055517</v>
+        <v>0.35980770748206</v>
       </c>
       <c r="O6" t="n">
-        <v>0.359295433610192</v>
+        <v>0.357403302441069</v>
       </c>
       <c r="P6" t="n">
-        <v>0.283693323755404</v>
+        <v>0.282798655363231</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.354828630243032</v>
+        <v>0.354221684336589</v>
       </c>
       <c r="R6" t="n">
-        <v>0.296913779268091</v>
+        <v>0.295974064514038</v>
       </c>
       <c r="S6" t="n">
-        <v>0.00144039365258543</v>
+        <v>0.00144086763522575</v>
       </c>
       <c r="T6" t="s">
         <v>148</v>
@@ -7053,58 +7053,58 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.46786362054478</v>
+        <v>-0.524601389178318</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.550050255239606</v>
+        <v>-0.583659116944807</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.536764092467029</v>
+        <v>-0.521212090356557</v>
       </c>
       <c r="E7" t="n">
-        <v>1.33369015975719</v>
+        <v>1.33909560613678</v>
       </c>
       <c r="F7" t="n">
-        <v>1.11104929079052</v>
+        <v>1.10930785312947</v>
       </c>
       <c r="G7" t="n">
-        <v>3.24825305323903</v>
+        <v>3.24824646982517</v>
       </c>
       <c r="H7" t="n">
-        <v>0.795229578134264</v>
+        <v>0.79529395266556</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.194387590275177</v>
+        <v>-0.195046542607077</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.362516156244285</v>
+        <v>-0.364763831726437</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.296697195372812</v>
+        <v>-0.29803716832084</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.20858430069933</v>
+        <v>-0.210424105310172</v>
       </c>
       <c r="M7" t="n">
-        <v>0.29565346888605</v>
+        <v>0.295604244239469</v>
       </c>
       <c r="N7" t="n">
-        <v>0.331343599103006</v>
+        <v>0.331282126009263</v>
       </c>
       <c r="O7" t="n">
-        <v>0.329127523677343</v>
+        <v>0.329068342376497</v>
       </c>
       <c r="P7" t="n">
-        <v>0.259873275296651</v>
+        <v>0.260378357197819</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.325035771338008</v>
+        <v>0.326138963188992</v>
       </c>
       <c r="R7" t="n">
-        <v>0.271983687447054</v>
+        <v>0.272509218943571</v>
       </c>
       <c r="S7" t="n">
-        <v>0.00131945232710733</v>
+        <v>0.00132663554329037</v>
       </c>
       <c r="T7" t="s">
         <v>149</v>
@@ -7115,58 +7115,58 @@
         <v>27</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.365566146916823</v>
+        <v>-0.408486291502068</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.429782833263293</v>
+        <v>-0.454472201371002</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.419401664224278</v>
+        <v>-0.405847178958614</v>
       </c>
       <c r="E8" t="n">
-        <v>1.04208139182869</v>
+        <v>1.04270062832715</v>
       </c>
       <c r="F8" t="n">
-        <v>0.868120517248219</v>
+        <v>0.863774020440028</v>
       </c>
       <c r="G8" t="n">
-        <v>0.795229578134264</v>
+        <v>0.79529395266556</v>
       </c>
       <c r="H8" t="n">
-        <v>2.39420942991415</v>
+        <v>2.39421170769926</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.151885120502848</v>
+        <v>-0.151875005486848</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.283252701458193</v>
+        <v>-0.284027126061173</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.231824928784104</v>
+        <v>-0.232069720226713</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.162977747714616</v>
+        <v>-0.163848903555945</v>
       </c>
       <c r="M8" t="n">
-        <v>0.231009411070296</v>
+        <v>0.230175298755467</v>
       </c>
       <c r="N8" t="n">
-        <v>0.258895963504486</v>
+        <v>0.257956249994692</v>
       </c>
       <c r="O8" t="n">
-        <v>0.257164428674543</v>
+        <v>0.256232464497758</v>
       </c>
       <c r="P8" t="n">
-        <v>0.203052487445449</v>
+        <v>0.202746297881008</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2539673300519</v>
+        <v>0.25395147312909</v>
       </c>
       <c r="R8" t="n">
-        <v>0.212514981456508</v>
+        <v>0.212192118707003</v>
       </c>
       <c r="S8" t="n">
-        <v>0.00103095663368615</v>
+        <v>0.00103299847166305</v>
       </c>
       <c r="T8" t="s">
         <v>150</v>
@@ -7177,58 +7177,58 @@
         <v>30</v>
       </c>
       <c r="B9" t="n">
-        <v>0.429344835868083</v>
+        <v>0.502415348702539</v>
       </c>
       <c r="C9" t="n">
-        <v>0.504765119972482</v>
+        <v>0.558975452242972</v>
       </c>
       <c r="D9" t="n">
-        <v>0.492572794849476</v>
+        <v>0.499169387512731</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.254728566690689</v>
+        <v>-0.255723247797612</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.212205204706093</v>
+        <v>-0.211841339565033</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.194387590275177</v>
+        <v>-0.195046542607077</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.151885120502848</v>
+        <v>-0.151875005486848</v>
       </c>
       <c r="I9" t="n">
-        <v>2.75530948657283</v>
+        <v>2.75530516659818</v>
       </c>
       <c r="J9" t="n">
-        <v>1.22820801994366</v>
+        <v>1.22578841383343</v>
       </c>
       <c r="K9" t="n">
-        <v>1.00521278451965</v>
+        <v>1.00155354243947</v>
       </c>
       <c r="L9" t="n">
-        <v>0.706685499502603</v>
+        <v>0.70712995052075</v>
       </c>
       <c r="M9" t="n">
-        <v>0.132726901418981</v>
+        <v>0.132373101169018</v>
       </c>
       <c r="N9" t="n">
-        <v>0.14874917375282</v>
+        <v>0.148349840153805</v>
       </c>
       <c r="O9" t="n">
-        <v>0.147754317086104</v>
+        <v>0.147358496455272</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.034288638021685</v>
+        <v>-0.034115890061482</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0428864179850192</v>
+        <v>-0.042732126942748</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.0358865304484633</v>
+        <v>-0.0357053276404076</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0153845667765674</v>
+        <v>0.0153815632724674</v>
       </c>
       <c r="T9" t="s">
         <v>151</v>
@@ -7239,58 +7239,58 @@
         <v>32</v>
       </c>
       <c r="B10" t="n">
-        <v>0.800691234362743</v>
+        <v>0.939585727905451</v>
       </c>
       <c r="C10" t="n">
-        <v>0.941343584945793</v>
+        <v>1.04536089220464</v>
       </c>
       <c r="D10" t="n">
-        <v>0.918605946020305</v>
+        <v>0.933515334524447</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.475046893433899</v>
+        <v>-0.478237606682917</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.395744476466758</v>
+        <v>-0.396172409441104</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.362516156244285</v>
+        <v>-0.364763831726437</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.283252701458193</v>
+        <v>-0.284027126061173</v>
       </c>
       <c r="I10" t="n">
-        <v>1.22820801994366</v>
+        <v>1.22578841383343</v>
       </c>
       <c r="J10" t="n">
-        <v>3.80946172096463</v>
+        <v>3.80946493111608</v>
       </c>
       <c r="K10" t="n">
-        <v>1.8746354864311</v>
+        <v>1.87304272578351</v>
       </c>
       <c r="L10" t="n">
-        <v>1.31790774601711</v>
+        <v>1.32243015863187</v>
       </c>
       <c r="M10" t="n">
-        <v>0.247524268727804</v>
+        <v>0.24755588565952</v>
       </c>
       <c r="N10" t="n">
-        <v>0.277404430175045</v>
+        <v>0.277434582573026</v>
       </c>
       <c r="O10" t="n">
-        <v>0.275549107958635</v>
+        <v>0.275580633658057</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0639453642121732</v>
+        <v>-0.0638014015283166</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0799794852181994</v>
+        <v>-0.0799149482636956</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.0669252963149761</v>
+        <v>-0.0667738681705316</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0286908953674958</v>
+        <v>0.0287656365614772</v>
       </c>
       <c r="T10" t="s">
         <v>152</v>
@@ -7301,58 +7301,58 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>0.655316568663319</v>
+        <v>0.767706239991556</v>
       </c>
       <c r="C11" t="n">
-        <v>0.770431873793233</v>
+        <v>0.854131832949042</v>
       </c>
       <c r="D11" t="n">
-        <v>0.751822513679512</v>
+        <v>0.762746310589277</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.388796688160369</v>
+        <v>-0.3907530563151</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.323892533420901</v>
+        <v>-0.32370013912241</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.296697195372812</v>
+        <v>-0.29803716832084</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.231824928784103</v>
+        <v>-0.232069720226713</v>
       </c>
       <c r="I11" t="n">
-        <v>1.00521278451965</v>
+        <v>1.00155354243947</v>
       </c>
       <c r="J11" t="n">
-        <v>1.8746354864311</v>
+        <v>1.87304272578351</v>
       </c>
       <c r="K11" t="n">
-        <v>3.76322440111576</v>
+        <v>3.76322804244423</v>
       </c>
       <c r="L11" t="n">
-        <v>1.07862649779362</v>
+        <v>1.0805165027335</v>
       </c>
       <c r="M11" t="n">
-        <v>0.202583402293269</v>
+        <v>0.202270205392663</v>
       </c>
       <c r="N11" t="n">
-        <v>0.227038478145693</v>
+        <v>0.226683158231409</v>
       </c>
       <c r="O11" t="n">
-        <v>0.225520010930812</v>
+        <v>0.225168354304129</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0523353508307089</v>
+        <v>-0.0521301384416349</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0654582934935747</v>
+        <v>-0.0652960157104634</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.0547742421244454</v>
+        <v>-0.0545588483737049</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0234817346527711</v>
+        <v>0.023503505885306</v>
       </c>
       <c r="T11" t="s">
         <v>153</v>
@@ -7363,58 +7363,58 @@
         <v>36</v>
       </c>
       <c r="B12" t="n">
-        <v>0.460701180675361</v>
+        <v>0.542026015081971</v>
       </c>
       <c r="C12" t="n">
-        <v>0.541629634987651</v>
+        <v>0.603045344236255</v>
       </c>
       <c r="D12" t="n">
-        <v>0.52854686768712</v>
+        <v>0.538524140759529</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.273332160124549</v>
+        <v>-0.27588459095748</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.227703189106464</v>
+        <v>-0.228543012092659</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.20858430069933</v>
+        <v>-0.210424105310172</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.162977747714616</v>
+        <v>-0.163848903555945</v>
       </c>
       <c r="I12" t="n">
-        <v>0.706685499502603</v>
+        <v>0.70712995052075</v>
       </c>
       <c r="J12" t="n">
-        <v>1.31790774601711</v>
+        <v>1.32243015863187</v>
       </c>
       <c r="K12" t="n">
-        <v>1.07862649779362</v>
+        <v>1.0805165027335</v>
       </c>
       <c r="L12" t="n">
-        <v>2.81390452177804</v>
+        <v>2.81390203962232</v>
       </c>
       <c r="M12" t="n">
-        <v>0.142420346264266</v>
+        <v>0.142809459774617</v>
       </c>
       <c r="N12" t="n">
-        <v>0.159612773340692</v>
+        <v>0.160045812502081</v>
       </c>
       <c r="O12" t="n">
-        <v>0.158545259299135</v>
+        <v>0.15897631079223</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.0367928403946006</v>
+        <v>-0.0368056031503686</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.0460185420902699</v>
+        <v>-0.046101148268199</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.0385074317116722</v>
+        <v>-0.0385203527481892</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0165081479641256</v>
+        <v>0.0165942530773336</v>
       </c>
       <c r="T12" t="s">
         <v>154</v>
@@ -7425,55 +7425,55 @@
         <v>39</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0566288573518553</v>
+        <v>0.0387790173249898</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0665764895420714</v>
+        <v>0.0431446188950092</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0649683708866271</v>
+        <v>0.0385284772379067</v>
       </c>
       <c r="E13" t="n">
-        <v>0.387428972496969</v>
+        <v>0.387563277919559</v>
       </c>
       <c r="F13" t="n">
-        <v>0.322753138707139</v>
+        <v>0.321057724191243</v>
       </c>
       <c r="G13" t="n">
-        <v>0.29565346888605</v>
+        <v>0.295604244239469</v>
       </c>
       <c r="H13" t="n">
-        <v>0.231009411070296</v>
+        <v>0.230175298755467</v>
       </c>
       <c r="I13" t="n">
-        <v>0.132726901418981</v>
+        <v>0.132373101169018</v>
       </c>
       <c r="J13" t="n">
-        <v>0.247524268727804</v>
+        <v>0.24755588565952</v>
       </c>
       <c r="K13" t="n">
-        <v>0.202583402293269</v>
+        <v>0.202270205392663</v>
       </c>
       <c r="L13" t="n">
-        <v>0.142420346264266</v>
+        <v>0.142809459774617</v>
       </c>
       <c r="M13" t="n">
-        <v>2.12474121361396</v>
+        <v>2.12472205575722</v>
       </c>
       <c r="N13" t="n">
-        <v>1.72165663384677</v>
+        <v>1.72165363593744</v>
       </c>
       <c r="O13" t="n">
-        <v>1.71014193741676</v>
+        <v>1.71014873319354</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.176120038795329</v>
+        <v>-0.175843653078106</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.220281645323371</v>
+        <v>-0.220254353378103</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.184327447792355</v>
+        <v>-0.18403609682541</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -7487,55 +7487,55 @@
         <v>41</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0634648714887437</v>
+        <v>0.043459441311558</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0746133429234878</v>
+        <v>0.048351948092529</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0728110984746497</v>
+        <v>0.0431786623501024</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4341978824994</v>
+        <v>0.434340132708986</v>
       </c>
       <c r="F14" t="n">
-        <v>0.361714635055517</v>
+        <v>0.35980770748206</v>
       </c>
       <c r="G14" t="n">
-        <v>0.331343599103006</v>
+        <v>0.331282126009263</v>
       </c>
       <c r="H14" t="n">
-        <v>0.258895963504486</v>
+        <v>0.257956249994692</v>
       </c>
       <c r="I14" t="n">
-        <v>0.14874917375282</v>
+        <v>0.148349840153805</v>
       </c>
       <c r="J14" t="n">
-        <v>0.277404430175045</v>
+        <v>0.277434582573026</v>
       </c>
       <c r="K14" t="n">
-        <v>0.227038478145693</v>
+        <v>0.226683158231409</v>
       </c>
       <c r="L14" t="n">
-        <v>0.159612773340692</v>
+        <v>0.160045812502081</v>
       </c>
       <c r="M14" t="n">
-        <v>1.72165663384677</v>
+        <v>1.72165363593744</v>
       </c>
       <c r="N14" t="n">
-        <v>2.15810312864659</v>
+        <v>2.15808993552834</v>
       </c>
       <c r="O14" t="n">
-        <v>1.91658358231221</v>
+        <v>1.9165547151801</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.197380560926539</v>
+        <v>-0.197067059665621</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.24687318384182</v>
+        <v>-0.246837898547842</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.206578736231673</v>
+        <v>-0.206248288402038</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -7549,55 +7549,55 @@
         <v>43</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0630404089595752</v>
+        <v>0.0431690247985282</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0741143177540657</v>
+        <v>0.048028837538425</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0723241269849876</v>
+        <v>0.0428901221347069</v>
       </c>
       <c r="E15" t="n">
-        <v>0.431293902281021</v>
+        <v>0.431437666800463</v>
       </c>
       <c r="F15" t="n">
-        <v>0.359295433610192</v>
+        <v>0.357403302441069</v>
       </c>
       <c r="G15" t="n">
-        <v>0.329127523677343</v>
+        <v>0.329068342376497</v>
       </c>
       <c r="H15" t="n">
-        <v>0.257164428674543</v>
+        <v>0.256232464497758</v>
       </c>
       <c r="I15" t="n">
-        <v>0.147754317086104</v>
+        <v>0.147358496455272</v>
       </c>
       <c r="J15" t="n">
-        <v>0.275549107958635</v>
+        <v>0.275580633658057</v>
       </c>
       <c r="K15" t="n">
-        <v>0.225520010930812</v>
+        <v>0.225168354304129</v>
       </c>
       <c r="L15" t="n">
-        <v>0.158545259299135</v>
+        <v>0.15897631079223</v>
       </c>
       <c r="M15" t="n">
-        <v>1.71014193741676</v>
+        <v>1.71014873319354</v>
       </c>
       <c r="N15" t="n">
-        <v>1.91658358231221</v>
+        <v>1.9165547151801</v>
       </c>
       <c r="O15" t="n">
-        <v>2.25106240961704</v>
+        <v>2.25104910741933</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.196060450286837</v>
+        <v>-0.19575016449684</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.245222059156002</v>
+        <v>-0.245188411126549</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.205197106823208</v>
+        <v>-0.204870039926484</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -7611,55 +7611,55 @@
         <v>46</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.282889352868593</v>
+        <v>-0.26017663523441</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.33258273120007</v>
+        <v>-0.289466380194754</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.324549377411065</v>
+        <v>-0.258495708760633</v>
       </c>
       <c r="E16" t="n">
-        <v>0.340542042029644</v>
+        <v>0.341379028148008</v>
       </c>
       <c r="F16" t="n">
-        <v>0.283693323755404</v>
+        <v>0.282798655363231</v>
       </c>
       <c r="G16" t="n">
-        <v>0.259873275296651</v>
+        <v>0.260378357197819</v>
       </c>
       <c r="H16" t="n">
-        <v>0.203052487445449</v>
+        <v>0.202746297881008</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.034288638021685</v>
+        <v>-0.034115890061482</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0639453642121732</v>
+        <v>-0.0638014015283166</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0523353508307089</v>
+        <v>-0.0521301384416349</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0367928403946006</v>
+        <v>-0.0368056031503686</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.176120038795329</v>
+        <v>-0.175843653078106</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.197380560926539</v>
+        <v>-0.197067059665621</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.196060450286837</v>
+        <v>-0.19575016449684</v>
       </c>
       <c r="P16" t="n">
-        <v>1.27989728796436</v>
+        <v>1.27989323602137</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.00163380653662</v>
+        <v>1.00166322875257</v>
       </c>
       <c r="R16" t="n">
-        <v>0.838147921541098</v>
+        <v>0.836951406979492</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -7673,55 +7673,55 @@
         <v>48</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.353823065907762</v>
+        <v>-0.325886294754078</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.415976919696403</v>
+        <v>-0.36257339561853</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.405929224941105</v>
+        <v>-0.323780837053007</v>
       </c>
       <c r="E17" t="n">
-        <v>0.42593200542754</v>
+        <v>0.427596991903864</v>
       </c>
       <c r="F17" t="n">
-        <v>0.354828630243032</v>
+        <v>0.354221684336589</v>
       </c>
       <c r="G17" t="n">
-        <v>0.325035771338008</v>
+        <v>0.326138963188992</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2539673300519</v>
+        <v>0.25395147312909</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0428864179850192</v>
+        <v>-0.042732126942748</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0799794852181994</v>
+        <v>-0.0799149482636956</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0654582934935747</v>
+        <v>-0.0652960157104634</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0460185420902699</v>
+        <v>-0.046101148268199</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.220281645323371</v>
+        <v>-0.220254353378103</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.24687318384182</v>
+        <v>-0.246837898547842</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.245222059156002</v>
+        <v>-0.245188411126549</v>
       </c>
       <c r="P17" t="n">
-        <v>1.00163380653662</v>
+        <v>1.00166322875257</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.28994397967386</v>
+        <v>1.28994152548143</v>
       </c>
       <c r="R17" t="n">
-        <v>1.04831116574983</v>
+        <v>1.04833008030879</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -7735,55 +7735,55 @@
         <v>50</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.296072342355636</v>
+        <v>-0.272298098882427</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.348081492834339</v>
+        <v>-0.30295243439671</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.339673774943355</v>
+        <v>-0.270538859115343</v>
       </c>
       <c r="E18" t="n">
-        <v>0.356411717273515</v>
+        <v>0.357283659538768</v>
       </c>
       <c r="F18" t="n">
-        <v>0.296913779268091</v>
+        <v>0.295974064514038</v>
       </c>
       <c r="G18" t="n">
-        <v>0.271983687447054</v>
+        <v>0.272509218943571</v>
       </c>
       <c r="H18" t="n">
-        <v>0.212514981456508</v>
+        <v>0.212192118707003</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.0358865304484633</v>
+        <v>-0.0357053276404076</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.0669252963149761</v>
+        <v>-0.0667738681705316</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.0547742421244454</v>
+        <v>-0.0545588483737049</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0385074317116722</v>
+        <v>-0.0385203527481892</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.184327447792355</v>
+        <v>-0.18403609682541</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.206578736231673</v>
+        <v>-0.206248288402038</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.205197106823208</v>
+        <v>-0.204870039926484</v>
       </c>
       <c r="P18" t="n">
-        <v>0.838147921541098</v>
+        <v>0.836951406979492</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.04831116574983</v>
+        <v>1.04833008030879</v>
       </c>
       <c r="R18" t="n">
-        <v>1.34982322194673</v>
+        <v>1.34982267030012</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -7797,37 +7797,37 @@
         <v>55</v>
       </c>
       <c r="B19" t="n">
-        <v>0.14728196634194</v>
+        <v>0.158483223715995</v>
       </c>
       <c r="C19" t="n">
-        <v>0.17315405520148</v>
+        <v>0.176324692066727</v>
       </c>
       <c r="D19" t="n">
-        <v>0.168971613796855</v>
+        <v>0.157459309150594</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0017290311569013</v>
+        <v>0.0017393363924291</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00144039365258543</v>
+        <v>0.00144086763522575</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00131945232710733</v>
+        <v>0.00132663554329037</v>
       </c>
       <c r="H19" t="n">
-        <v>0.00103095663368615</v>
+        <v>0.00103299847166305</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0153845667765674</v>
+        <v>0.0153815632724674</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0286908953674958</v>
+        <v>0.0287656365614772</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0234817346527711</v>
+        <v>0.023503505885306</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0165081479641256</v>
+        <v>0.0165942530773336</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -7941,58 +7941,58 @@
         <v>163</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00830517986576673</v>
+        <v>0.00835796868414018</v>
       </c>
       <c r="D2" t="n">
-        <v>0.043405206815665</v>
+        <v>-0.00922372204228239</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.00354374721046424</v>
+        <v>0.0372103367052388</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0118909966522284</v>
+        <v>-0.215644742304774</v>
       </c>
       <c r="G2" t="n">
-        <v>0.118307374437213</v>
+        <v>0.152280652708336</v>
       </c>
       <c r="H2" t="n">
-        <v>0.332810576183591</v>
+        <v>0.174394813778298</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0787327027096862</v>
+        <v>0.158118657315589</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.395382439593448</v>
+        <v>-0.222243085826592</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.09295165941789</v>
+        <v>0.160384511231831</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.123166083736321</v>
+        <v>-0.213217601638556</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.148956143736878</v>
+        <v>0.0502063997494433</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0696359793135296</v>
+        <v>0.0409363287763376</v>
       </c>
       <c r="O2" t="n">
-        <v>0.10656593975736</v>
+        <v>0.0184519063303344</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0728879548932303</v>
+        <v>-0.0428451565866313</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.159549637362843</v>
+        <v>0.0135466152771245</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.102253402003027</v>
+        <v>-0.0805770643720024</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.154936025698704</v>
+        <v>-0.145903294626203</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.0304180610164959</v>
+        <v>0.0353037585325251</v>
       </c>
       <c r="U2" t="s">
         <v>164</v>
@@ -8006,58 +8006,58 @@
         <v>163</v>
       </c>
       <c r="C3" t="n">
-        <v>0.043405206815665</v>
+        <v>-0.00922372204228239</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0114676562384002</v>
+        <v>0.0103449148706636</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.00289664238039933</v>
+        <v>0.0110626202582762</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.18264896991041</v>
+        <v>-0.323292397341666</v>
       </c>
       <c r="G3" t="n">
-        <v>0.182975612472837</v>
+        <v>-0.0158161261924283</v>
       </c>
       <c r="H3" t="n">
-        <v>0.199843679839587</v>
+        <v>0.109804910159332</v>
       </c>
       <c r="I3" t="n">
-        <v>0.179415199076814</v>
+        <v>-0.0147428121089191</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.224592857096535</v>
+        <v>-0.234634567820158</v>
       </c>
       <c r="K3" t="n">
-        <v>0.158626654191488</v>
+        <v>0.156969208282033</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.215943235440233</v>
+        <v>-0.0816361220145491</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0506027798437635</v>
+        <v>0.0157617703605748</v>
       </c>
       <c r="N3" t="n">
-        <v>0.013138856559256</v>
+        <v>0.000332500253478502</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.0127019952815954</v>
+        <v>0.0314334235681263</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.0737904495421688</v>
+        <v>-0.108714737892058</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.085952711242785</v>
+        <v>0.0297065678632514</v>
       </c>
       <c r="R3" t="n">
-        <v>0.00951356057032249</v>
+        <v>-0.0331935593200253</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.070119900674291</v>
+        <v>-0.106618308924603</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0206329270470408</v>
+        <v>0.00858655053682278</v>
       </c>
       <c r="U3" t="s">
         <v>165</v>
@@ -8071,58 +8071,58 @@
         <v>163</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.00354374721046424</v>
+        <v>0.0372103367052388</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.00289664238039933</v>
+        <v>0.0110626202582762</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0109198659309366</v>
+        <v>0.00824957865526255</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.385136920635674</v>
+        <v>-0.0761333688803392</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0637681307689594</v>
+        <v>0.295180514913873</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0629098856815542</v>
+        <v>0.248243706896596</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0498133492556431</v>
+        <v>0.254425660104234</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.168231910426663</v>
+        <v>-0.284278452321389</v>
       </c>
       <c r="K4" t="n">
-        <v>0.283724154466368</v>
+        <v>0.119012588167333</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0206731972549812</v>
+        <v>-0.1156663764133</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0902602469097098</v>
+        <v>0.0470033267661183</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.0214912517381394</v>
+        <v>0.0567850622039897</v>
       </c>
       <c r="O4" t="n">
-        <v>0.00697427318600562</v>
+        <v>0.0264880159874915</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.13301002733862</v>
+        <v>-0.0523873386187248</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.064789565079563</v>
+        <v>0.125569690764063</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0101622700025497</v>
+        <v>0.0570534815682548</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.0698969683779579</v>
+        <v>-0.0448300005184234</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0159396288066953</v>
+        <v>-0.0139681848902392</v>
       </c>
       <c r="U4" t="s">
         <v>166</v>
@@ -8136,58 +8136,58 @@
         <v>163</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0118909966522285</v>
+        <v>-0.215644742304774</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.18264896991041</v>
+        <v>-0.323292397341666</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.385136920635674</v>
+        <v>-0.0761333688803392</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.000184142816000321</v>
+        <v>-0.000178032648786797</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0355730958319245</v>
+        <v>-0.0340371592157258</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0458238385499423</v>
+        <v>-0.0512292849295388</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0292754676663709</v>
+        <v>-0.0298947041648279</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.29849085839947</v>
+        <v>-0.297496177292547</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.749113675173642</v>
+        <v>-0.745922961924623</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.117952025119976</v>
+        <v>-0.115995656965245</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0514474221952088</v>
+        <v>0.0539998530281394</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.208312344927903</v>
+        <v>-0.208446650350493</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.16301515080233</v>
+        <v>-0.163157401011915</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.120336652884992</v>
+        <v>-0.120480417404434</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.205217648626051</v>
+        <v>-0.206054634744415</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0481235248410072</v>
+        <v>0.0464585383646833</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0494476714033533</v>
+        <v>0.0485757291381003</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.0120840607427001</v>
+        <v>-0.0120943659782279</v>
       </c>
       <c r="U5" t="s">
         <v>167</v>
@@ -8201,58 +8201,58 @@
         <v>163</v>
       </c>
       <c r="C6" t="n">
-        <v>0.118307374437213</v>
+        <v>0.152280652708336</v>
       </c>
       <c r="D6" t="n">
-        <v>0.182975612472837</v>
+        <v>-0.0158161261924284</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.0637681307689594</v>
+        <v>0.295180514913873</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0355730958319245</v>
+        <v>-0.0340371592157258</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.000127510624462701</v>
+        <v>-0.000122023983104125</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0987297785697951</v>
+        <v>0.100471216230842</v>
       </c>
       <c r="I6" t="n">
-        <v>0.055761699760989</v>
+        <v>0.0601081965691802</v>
       </c>
       <c r="J6" t="n">
-        <v>0.315597943055588</v>
+        <v>0.315234077914528</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0755625505981237</v>
+        <v>-0.0751346176237771</v>
       </c>
       <c r="L6" t="n">
-        <v>0.141983636673588</v>
+        <v>0.141791242375097</v>
       </c>
       <c r="M6" t="n">
-        <v>0.453255515705671</v>
+        <v>0.454095338691865</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0657486644510175</v>
+        <v>0.0674440789669141</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0903003504141819</v>
+        <v>0.0922072779876386</v>
       </c>
       <c r="P6" t="n">
-        <v>0.165213512155014</v>
+        <v>0.167105643324137</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.111588005314173</v>
+        <v>-0.110693336922</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.101983841895286</v>
+        <v>-0.101376895988843</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.0411804365980181</v>
+        <v>-0.0402407218439646</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.00735755341589929</v>
+        <v>-0.00735802739853961</v>
       </c>
       <c r="U6" t="s">
         <v>168</v>
@@ -8266,58 +8266,58 @@
         <v>163</v>
       </c>
       <c r="C7" t="n">
-        <v>0.332810576183591</v>
+        <v>0.174394813778298</v>
       </c>
       <c r="D7" t="n">
-        <v>0.199843679839587</v>
+        <v>0.109804910159332</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0629098856815542</v>
+        <v>0.248243706896595</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0458238385499423</v>
+        <v>-0.051229284929539</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0987297785697951</v>
+        <v>0.100471216230842</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.000108730561247938</v>
+        <v>-0.000102147147392095</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00818241724404756</v>
+        <v>0.00811804271275229</v>
       </c>
       <c r="J7" t="n">
-        <v>0.508802351663082</v>
+        <v>0.509461303994982</v>
       </c>
       <c r="K7" t="n">
-        <v>0.265994675903964</v>
+        <v>0.268242351386116</v>
       </c>
       <c r="L7" t="n">
-        <v>0.395914659747309</v>
+        <v>0.397254632695337</v>
       </c>
       <c r="M7" t="n">
-        <v>0.531270831282997</v>
+        <v>0.533110635893839</v>
       </c>
       <c r="N7" t="n">
-        <v>0.13467985277636</v>
+        <v>0.13472907742294</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0389953246041495</v>
+        <v>0.0390567976978923</v>
       </c>
       <c r="P7" t="n">
-        <v>0.219338916573353</v>
+        <v>0.219398097874199</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.0201932921027843</v>
+        <v>-0.0206983740039521</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0427384662587157</v>
+        <v>0.0416352744077316</v>
       </c>
       <c r="S7" t="n">
-        <v>0.15449822845225</v>
+        <v>0.153972696955733</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0179113169036618</v>
+        <v>0.0179041336874788</v>
       </c>
       <c r="U7" t="s">
         <v>169</v>
@@ -8331,58 +8331,58 @@
         <v>163</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0787327027096862</v>
+        <v>0.158118657315589</v>
       </c>
       <c r="D8" t="n">
-        <v>0.179415199076814</v>
+        <v>-0.0147428121089191</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.049813349255643</v>
+        <v>0.254425660104234</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0292754676663709</v>
+        <v>-0.0298947041648279</v>
       </c>
       <c r="G8" t="n">
-        <v>0.055761699760989</v>
+        <v>0.0601081965691802</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00818241724404756</v>
+        <v>0.0081180427127524</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.0000618160350880359</v>
+        <v>-0.0000640938201961205</v>
       </c>
       <c r="J8" t="n">
-        <v>0.265694160802554</v>
+        <v>0.265684045786554</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0272830225253827</v>
+        <v>0.0280574471283622</v>
       </c>
       <c r="L8" t="n">
-        <v>0.210073239417483</v>
+        <v>0.210318030860093</v>
       </c>
       <c r="M8" t="n">
-        <v>0.283885629091318</v>
+        <v>0.284756784932647</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0371447151857899</v>
+        <v>0.0379788275006187</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0201296308374518</v>
+        <v>0.0210693443472467</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.0165128408449859</v>
+        <v>-0.0155808766682009</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.0500466403112443</v>
+        <v>-0.0497404507468028</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0585042220646222</v>
+        <v>0.0585200789874322</v>
       </c>
       <c r="S8" t="n">
-        <v>0.127362823942464</v>
+        <v>0.127685686691969</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.0439303649177099</v>
+        <v>-0.0439324067556868</v>
       </c>
       <c r="U8" t="s">
         <v>170</v>
@@ -8396,58 +8396,58 @@
         <v>163</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.395382439593448</v>
+        <v>-0.222243085826592</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.224592857096535</v>
+        <v>-0.234634567820158</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.168231910426663</v>
+        <v>-0.284278452321389</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.29849085839947</v>
+        <v>-0.297496177292547</v>
       </c>
       <c r="G9" t="n">
-        <v>0.315597943055588</v>
+        <v>0.315234077914528</v>
       </c>
       <c r="H9" t="n">
-        <v>0.508802351663082</v>
+        <v>0.509461303994982</v>
       </c>
       <c r="I9" t="n">
-        <v>0.265694160802554</v>
+        <v>0.265684045786554</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.0000488164282366199</v>
+        <v>-0.0000444964535848413</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.00855534671793312</v>
+        <v>-0.00613574060770605</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0795356486584624</v>
+        <v>0.0831948907386355</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04573913548917</v>
+        <v>0.0452946844710223</v>
       </c>
       <c r="N9" t="n">
-        <v>0.188200236986538</v>
+        <v>0.188554037236501</v>
       </c>
       <c r="O9" t="n">
-        <v>0.070938512252573</v>
+        <v>0.0713378458515884</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0805990318862687</v>
+        <v>0.0809948525171014</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.101985847503146</v>
+        <v>0.101813099542942</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0219487757456003</v>
+        <v>0.021794484703329</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0521324602128262</v>
+        <v>0.0519512574047705</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.06863900464639</v>
+        <v>-0.06863600114229</v>
       </c>
       <c r="U9" t="s">
         <v>171</v>
@@ -8461,58 +8461,58 @@
         <v>163</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.09295165941789</v>
+        <v>0.160384511231831</v>
       </c>
       <c r="D10" t="n">
-        <v>0.158626654191488</v>
+        <v>0.156969208282033</v>
       </c>
       <c r="E10" t="n">
-        <v>0.283724154466368</v>
+        <v>0.119012588167333</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.749113675173642</v>
+        <v>-0.745922961924623</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0755625505981237</v>
+        <v>-0.0751346176237771</v>
       </c>
       <c r="H10" t="n">
-        <v>0.265994675903964</v>
+        <v>0.268242351386116</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0272830225253827</v>
+        <v>0.0280574471283622</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.00855534671793312</v>
+        <v>-0.00613574060770605</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.00016757860266825</v>
+        <v>-0.000170788754119577</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0359131027610655</v>
+        <v>-0.0343203421134717</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.0447993114384868</v>
+        <v>-0.0493217240532489</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.0142428710176421</v>
+        <v>-0.0142744879493587</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.125702809083349</v>
+        <v>-0.125732961481329</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.234505376996836</v>
+        <v>-0.234536902696257</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.033361701175163</v>
+        <v>0.0332177384913064</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.0613495998978684</v>
+        <v>-0.0614141368523722</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.196537117466055</v>
+        <v>-0.1966885456105</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0615457910230366</v>
+        <v>0.0614710498290552</v>
       </c>
       <c r="U10" t="s">
         <v>172</v>
@@ -8526,58 +8526,58 @@
         <v>163</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.123166083736321</v>
+        <v>-0.213217601638556</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.215943235440233</v>
+        <v>-0.0816361220145491</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0206731972549812</v>
+        <v>-0.1156663764133</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.117952025119976</v>
+        <v>-0.115995656965245</v>
       </c>
       <c r="G11" t="n">
-        <v>0.141983636673588</v>
+        <v>0.141791242375097</v>
       </c>
       <c r="H11" t="n">
-        <v>0.395914659747309</v>
+        <v>0.397254632695337</v>
       </c>
       <c r="I11" t="n">
-        <v>0.210073239417483</v>
+        <v>0.210318030860093</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0795356486584626</v>
+        <v>0.0831948907386355</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0359131027610653</v>
+        <v>-0.0343203421134719</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.000112115131374324</v>
+        <v>-0.000115756459842409</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0734777702642162</v>
+        <v>0.0715877653243382</v>
       </c>
       <c r="N11" t="n">
-        <v>0.200544989569763</v>
+        <v>0.200858186470369</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0797872632499201</v>
+        <v>0.0801425831642046</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0290895638176148</v>
+        <v>-0.0287379071909312</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0399408299752853</v>
+        <v>-0.0401460423643593</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0745616162063641</v>
+        <v>0.0743993384232529</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.03372931167269</v>
+        <v>-0.0339447054234306</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.0220024447119426</v>
+        <v>-0.0220242159444775</v>
       </c>
       <c r="U11" t="s">
         <v>173</v>
@@ -8591,58 +8591,58 @@
         <v>163</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.148956143736878</v>
+        <v>0.0502063997494433</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0506027798437636</v>
+        <v>0.0157617703605748</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0902602469097097</v>
+        <v>0.0470033267661182</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0514474221952088</v>
+        <v>0.0539998530281395</v>
       </c>
       <c r="G12" t="n">
-        <v>0.453255515705671</v>
+        <v>0.454095338691865</v>
       </c>
       <c r="H12" t="n">
-        <v>0.531270831282997</v>
+        <v>0.533110635893839</v>
       </c>
       <c r="I12" t="n">
-        <v>0.283885629091318</v>
+        <v>0.284756784932647</v>
       </c>
       <c r="J12" t="n">
-        <v>0.04573913548917</v>
+        <v>0.0452946844710223</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0447993114384868</v>
+        <v>-0.0493217240532489</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0734777702642162</v>
+        <v>0.0715877653243382</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.000058718059685603</v>
+        <v>-0.0000562359039606442</v>
       </c>
       <c r="N12" t="n">
-        <v>0.193728598100428</v>
+        <v>0.193339484590077</v>
       </c>
       <c r="O12" t="n">
-        <v>0.18598962153344</v>
+        <v>0.18555658237205</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0893714803108236</v>
+        <v>0.0889404288177286</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0899597463152609</v>
+        <v>0.0899725090710289</v>
       </c>
       <c r="R12" t="n">
-        <v>0.0319083918854448</v>
+        <v>0.0319909980633739</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.0417506124744551</v>
+        <v>-0.0417376914379381</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.0564489763664924</v>
+        <v>-0.0565350814797004</v>
       </c>
       <c r="U12" t="s">
         <v>174</v>
@@ -8656,55 +8656,55 @@
         <v>163</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0696359793135296</v>
+        <v>0.0409363287763376</v>
       </c>
       <c r="D13" t="n">
-        <v>0.013138856559256</v>
+        <v>0.000332500253478502</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.0214912517381394</v>
+        <v>0.0567850622039897</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.208312344927903</v>
+        <v>-0.208446650350493</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0657486644510175</v>
+        <v>0.0674440789669141</v>
       </c>
       <c r="H13" t="n">
-        <v>0.13467985277636</v>
+        <v>0.13472907742294</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0371447151857899</v>
+        <v>0.0379788275006187</v>
       </c>
       <c r="J13" t="n">
-        <v>0.188200236986538</v>
+        <v>0.188554037236501</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0142428710176421</v>
+        <v>-0.0142744879493587</v>
       </c>
       <c r="L13" t="n">
-        <v>0.200544989569763</v>
+        <v>0.200858186470369</v>
       </c>
       <c r="M13" t="n">
-        <v>0.193728598100428</v>
+        <v>0.193339484590077</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.0000169392538151847</v>
+        <v>0.00000221860292581866</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.00304559081606048</v>
+        <v>-0.00304259290673436</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.00114190240398004</v>
+        <v>-0.00114869818075558</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.0825018581970726</v>
+        <v>-0.0827782439142955</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.0689764338755358</v>
+        <v>-0.0690037258208037</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.079817715192132</v>
+        <v>-0.0801090661590768</v>
       </c>
       <c r="T13" t="n">
         <v>-0.0221893491124256</v>
@@ -8721,55 +8721,55 @@
         <v>163</v>
       </c>
       <c r="C14" t="n">
-        <v>0.10656593975736</v>
+        <v>0.0184519063303344</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0127019952815954</v>
+        <v>0.0314334235681263</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00697427318600562</v>
+        <v>0.0264880159874915</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.16301515080233</v>
+        <v>-0.163157401011915</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0903003504141819</v>
+        <v>0.0922072779876386</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0389953246041495</v>
+        <v>0.0390567976978923</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0201296308374518</v>
+        <v>0.0210693443472467</v>
       </c>
       <c r="J14" t="n">
-        <v>0.070938512252573</v>
+        <v>0.0713378458515884</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.125702809083349</v>
+        <v>-0.125732961481329</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0797872632499201</v>
+        <v>0.0801425831642046</v>
       </c>
       <c r="M14" t="n">
-        <v>0.18598962153344</v>
+        <v>0.18555658237205</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.00304559081606048</v>
+        <v>-0.00304259290673436</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.0000116752661085684</v>
+        <v>0.00000151785215063427</v>
       </c>
       <c r="P14" t="n">
-        <v>0.00198544538289869</v>
+        <v>0.00201431251501494</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.0440325548607235</v>
+        <v>-0.0443460561216407</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.00619918757374588</v>
+        <v>-0.00623447286772416</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0102183146778071</v>
+        <v>0.00988786684817233</v>
       </c>
       <c r="T14" t="n">
         <v>-0.0162721893491122</v>
@@ -8786,55 +8786,55 @@
         <v>163</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0728879548932303</v>
+        <v>-0.0428451565866313</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.0737904495421688</v>
+        <v>-0.108714737892058</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.13301002733862</v>
+        <v>-0.0523873386187248</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.120336652884992</v>
+        <v>-0.120480417404434</v>
       </c>
       <c r="G15" t="n">
-        <v>0.165213512155014</v>
+        <v>0.167105643324137</v>
       </c>
       <c r="H15" t="n">
-        <v>0.219338916573353</v>
+        <v>0.219398097874199</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.0165128408449859</v>
+        <v>-0.0155808766682009</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0805990318862687</v>
+        <v>0.0809948525171014</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.234505376996836</v>
+        <v>-0.234536902696257</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0290895638176147</v>
+        <v>-0.0287379071909312</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0893714803108237</v>
+        <v>0.0889404288177286</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.00114190240398004</v>
+        <v>-0.00114869818075558</v>
       </c>
       <c r="O15" t="n">
-        <v>0.00198544538289869</v>
+        <v>0.00201431251501494</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.0000120262271101623</v>
+        <v>0.0000012759706091714</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.00226944012316393</v>
+        <v>-0.0025797259131608</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0501833700344718</v>
+        <v>0.0501497220050187</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0707217733264821</v>
+        <v>0.0703947064297589</v>
       </c>
       <c r="T15" t="n">
         <v>-0.00147928994082847</v>
@@ -8851,55 +8851,55 @@
         <v>163</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.159549637362843</v>
+        <v>0.0135466152771245</v>
       </c>
       <c r="D16" t="n">
-        <v>0.085952711242785</v>
+        <v>0.0297065678632514</v>
       </c>
       <c r="E16" t="n">
-        <v>0.064789565079563</v>
+        <v>0.125569690764063</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.205217648626051</v>
+        <v>-0.206054634744415</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.111588005314173</v>
+        <v>-0.110693336922</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0201932921027843</v>
+        <v>-0.0206983740039521</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.0500466403112443</v>
+        <v>-0.0497404507468028</v>
       </c>
       <c r="J16" t="n">
-        <v>0.101985847503146</v>
+        <v>0.101813099542942</v>
       </c>
       <c r="K16" t="n">
-        <v>0.033361701175163</v>
+        <v>0.0332177384913064</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0399408299752853</v>
+        <v>-0.0401460423643593</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0899597463152609</v>
+        <v>0.0899725090710289</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.0825018581970726</v>
+        <v>-0.0827782439142955</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.0440325548607235</v>
+        <v>-0.0443460561216407</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.00226944012316393</v>
+        <v>-0.0025797259131608</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.00000512732572377494</v>
+        <v>-0.00000107538274241037</v>
       </c>
       <c r="R16" t="n">
-        <v>0.000414441073756544</v>
+        <v>0.000385018857803621</v>
       </c>
       <c r="S16" t="n">
-        <v>0.00562505559555793</v>
+        <v>0.00682157015716367</v>
       </c>
       <c r="T16" t="n">
         <v>-0.0355029585798816</v>
@@ -8916,55 +8916,55 @@
         <v>163</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.102253402003027</v>
+        <v>-0.0805770643720025</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00951356057032249</v>
+        <v>-0.0331935593200253</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0101622700025497</v>
+        <v>0.0570534815682548</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0481235248410071</v>
+        <v>0.0464585383646834</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.101983841895286</v>
+        <v>-0.101376895988843</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0427384662587157</v>
+        <v>0.0416352744077316</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0585042220646222</v>
+        <v>0.0585200789874322</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0219487757456003</v>
+        <v>0.021794484703329</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0613495998978684</v>
+        <v>-0.0614141368523722</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0745616162063641</v>
+        <v>0.0743993384232529</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0319083918854448</v>
+        <v>0.0319909980633739</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.0689764338755358</v>
+        <v>-0.0690037258208037</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.00619918757374585</v>
+        <v>-0.00623447286772413</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0501833700344718</v>
+        <v>0.0501497220050187</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.000414441073756544</v>
+        <v>0.000385018857803621</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.00000315127149708161</v>
+        <v>-0.00000069707905914207</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.000746304575501844</v>
+        <v>-0.00076521913445915</v>
       </c>
       <c r="T17" t="n">
         <v>-0.0236686390532546</v>
@@ -8981,55 +8981,55 @@
         <v>163</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.154936025698704</v>
+        <v>-0.145903294626203</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.070119900674291</v>
+        <v>-0.106618308924603</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.0698969683779579</v>
+        <v>-0.0448300005184234</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0494476714033533</v>
+        <v>0.0485757291381003</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.041180436598018</v>
+        <v>-0.0402407218439647</v>
       </c>
       <c r="H18" t="n">
-        <v>0.15449822845225</v>
+        <v>0.153972696955733</v>
       </c>
       <c r="I18" t="n">
-        <v>0.127362823942464</v>
+        <v>0.127685686691969</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0521324602128262</v>
+        <v>0.0519512574047705</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.196537117466055</v>
+        <v>-0.1966885456105</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0337293116726901</v>
+        <v>-0.0339447054234306</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.0417506124744551</v>
+        <v>-0.0417376914379381</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.079817715192132</v>
+        <v>-0.0801090661590768</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0102183146778071</v>
+        <v>0.00988786684817233</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0707217733264821</v>
+        <v>0.0703947064297589</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.00562505559555793</v>
+        <v>0.00682157015716367</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.000746304575501622</v>
+        <v>-0.00076521913445915</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.00000178712302023598</v>
+        <v>-0.00000123547640473731</v>
       </c>
       <c r="T18" t="n">
         <v>-0.0340236686390534</v>
@@ -9046,37 +9046,37 @@
         <v>163</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0304180610164959</v>
+        <v>0.0353037585325251</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0206329270470408</v>
+        <v>0.00858655053682278</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0159396288066953</v>
+        <v>-0.0139681848902392</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0120840607427001</v>
+        <v>-0.0120943659782279</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.00735755341589929</v>
+        <v>-0.00735802739853961</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0179113169036618</v>
+        <v>0.0179041336874788</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.0439303649177099</v>
+        <v>-0.0439324067556868</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.06863900464639</v>
+        <v>-0.06863600114229</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0615457910230366</v>
+        <v>0.0614710498290552</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0220024447119426</v>
+        <v>-0.0220242159444775</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.0564489763664924</v>
+        <v>-0.0565350814797004</v>
       </c>
       <c r="N19" t="n">
         <v>-0.0221893491124256</v>

--- a/frmedfit.xlsx
+++ b/frmedfit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="293">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -186,6 +186,9 @@
     <t xml:space="preserve">gr_1</t>
   </si>
   <si>
+    <t xml:space="preserve">d1</t>
+  </si>
+  <si>
     <t xml:space="preserve">20</t>
   </si>
   <si>
@@ -201,6 +204,9 @@
     <t xml:space="preserve">23</t>
   </si>
   <si>
+    <t xml:space="preserve">d2</t>
+  </si>
+  <si>
     <t xml:space="preserve">24</t>
   </si>
   <si>
@@ -388,6 +394,24 @@
   </si>
   <si>
     <t xml:space="preserve">a1*b2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind1+d1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind2+d2</t>
   </si>
   <si>
     <t xml:space="preserve">est.std</t>
@@ -1861,7 +1885,7 @@
         <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F20" t="n">
         <v>-0.0714408108887556</v>
@@ -1884,7 +1908,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -1919,7 +1943,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -1954,7 +1978,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1966,7 +1990,7 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F23" t="n">
         <v>-0.248408078158097</v>
@@ -1989,7 +2013,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -2001,7 +2025,7 @@
         <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="F24" t="n">
         <v>0.164431397664077</v>
@@ -2024,7 +2048,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -2059,7 +2083,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -2094,7 +2118,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
@@ -2106,7 +2130,7 @@
         <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F27" t="n">
         <v>0.633932894863982</v>
@@ -2129,7 +2153,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
@@ -2164,7 +2188,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
@@ -2199,13 +2223,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
@@ -2234,13 +2258,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
@@ -2269,13 +2293,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
         <v>16</v>
@@ -2304,13 +2328,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
@@ -2339,13 +2363,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
@@ -2374,13 +2398,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
         <v>23</v>
@@ -2409,13 +2433,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
         <v>25</v>
@@ -2444,13 +2468,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
         <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D37" t="s">
         <v>27</v>
@@ -2479,13 +2503,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
         <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D38" t="s">
         <v>30</v>
@@ -2514,13 +2538,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D39" t="s">
         <v>32</v>
@@ -2549,13 +2573,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
         <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D40" t="s">
         <v>34</v>
@@ -2584,13 +2608,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
         <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D41" t="s">
         <v>36</v>
@@ -2619,13 +2643,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
         <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D42" t="s">
         <v>39</v>
@@ -2654,13 +2678,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D43" t="s">
         <v>41</v>
@@ -2689,13 +2713,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D44" t="s">
         <v>43</v>
@@ -2724,13 +2748,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D45" t="s">
         <v>46</v>
@@ -2759,13 +2783,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D46" t="s">
         <v>48</v>
@@ -2794,13 +2818,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B47" t="s">
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D47" t="s">
         <v>50</v>
@@ -2829,13 +2853,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
@@ -2864,13 +2888,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B49" t="s">
         <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D49" t="s">
         <v>20</v>
@@ -2899,13 +2923,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B50" t="s">
         <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D50" t="s">
         <v>29</v>
@@ -2934,13 +2958,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B51" t="s">
         <v>38</v>
       </c>
       <c r="C51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D51" t="s">
         <v>38</v>
@@ -2969,13 +2993,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B52" t="s">
         <v>45</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D52" t="s">
         <v>45</v>
@@ -3004,13 +3028,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53" t="s">
         <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D53" t="s">
         <v>45</v>
@@ -3039,13 +3063,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D54" t="s">
         <v>55</v>
@@ -3070,13 +3094,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55" t="s">
         <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D55" t="s">
         <v>0</v>
@@ -3105,13 +3129,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D56" t="s">
         <v>0</v>
@@ -3140,13 +3164,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B57" t="s">
         <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D57" t="s">
         <v>0</v>
@@ -3175,13 +3199,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B58" t="s">
         <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D58" t="s">
         <v>0</v>
@@ -3210,13 +3234,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B59" t="s">
         <v>23</v>
       </c>
       <c r="C59" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D59" t="s">
         <v>0</v>
@@ -3245,13 +3269,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B60" t="s">
         <v>25</v>
       </c>
       <c r="C60" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D60" t="s">
         <v>0</v>
@@ -3280,13 +3304,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B61" t="s">
         <v>27</v>
       </c>
       <c r="C61" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D61" t="s">
         <v>0</v>
@@ -3315,13 +3339,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B62" t="s">
         <v>30</v>
       </c>
       <c r="C62" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D62" t="s">
         <v>0</v>
@@ -3350,13 +3374,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B63" t="s">
         <v>32</v>
       </c>
       <c r="C63" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D63" t="s">
         <v>0</v>
@@ -3385,13 +3409,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B64" t="s">
         <v>34</v>
       </c>
       <c r="C64" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D64" t="s">
         <v>0</v>
@@ -3420,13 +3444,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B65" t="s">
         <v>36</v>
       </c>
       <c r="C65" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D65" t="s">
         <v>0</v>
@@ -3455,13 +3479,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B66" t="s">
         <v>39</v>
       </c>
       <c r="C66" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D66" t="s">
         <v>0</v>
@@ -3490,13 +3514,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B67" t="s">
         <v>41</v>
       </c>
       <c r="C67" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D67" t="s">
         <v>0</v>
@@ -3525,13 +3549,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B68" t="s">
         <v>43</v>
       </c>
       <c r="C68" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D68" t="s">
         <v>0</v>
@@ -3560,13 +3584,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B69" t="s">
         <v>46</v>
       </c>
       <c r="C69" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D69" t="s">
         <v>0</v>
@@ -3595,13 +3619,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B70" t="s">
         <v>48</v>
       </c>
       <c r="C70" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D70" t="s">
         <v>0</v>
@@ -3630,13 +3654,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B71" t="s">
         <v>50</v>
       </c>
       <c r="C71" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D71" t="s">
         <v>0</v>
@@ -3665,13 +3689,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B72" t="s">
         <v>55</v>
       </c>
       <c r="C72" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D72" t="s">
         <v>0</v>
@@ -3696,13 +3720,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B73" t="s">
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D73" t="s">
         <v>0</v>
@@ -3727,13 +3751,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B74" t="s">
         <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D74" t="s">
         <v>0</v>
@@ -3758,13 +3782,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B75" t="s">
         <v>29</v>
       </c>
       <c r="C75" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D75" t="s">
         <v>0</v>
@@ -3789,13 +3813,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B76" t="s">
         <v>38</v>
       </c>
       <c r="C76" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D76" t="s">
         <v>0</v>
@@ -3820,13 +3844,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B77" t="s">
         <v>45</v>
       </c>
       <c r="C77" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D77" t="s">
         <v>0</v>
@@ -3851,19 +3875,19 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B78" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C78" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D78" t="s">
+        <v>122</v>
+      </c>
+      <c r="E78" t="s">
         <v>120</v>
-      </c>
-      <c r="E78" t="s">
-        <v>118</v>
       </c>
       <c r="F78" t="n">
         <v>0.132967063978625</v>
@@ -3886,19 +3910,19 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>123</v>
+      </c>
+      <c r="B79" t="s">
+        <v>124</v>
+      </c>
+      <c r="C79" t="s">
         <v>121</v>
       </c>
-      <c r="B79" t="s">
-        <v>122</v>
-      </c>
-      <c r="C79" t="s">
-        <v>119</v>
-      </c>
       <c r="D79" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E79" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F79" t="n">
         <v>-0.157474052094361</v>
@@ -3917,6 +3941,76 @@
       </c>
       <c r="K79" t="n">
         <v>-0.0533797646085845</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>126</v>
+      </c>
+      <c r="B80" t="s">
+        <v>127</v>
+      </c>
+      <c r="C80" t="s">
+        <v>121</v>
+      </c>
+      <c r="D80" t="s">
+        <v>128</v>
+      </c>
+      <c r="E80" t="s">
+        <v>127</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.0615262530898697</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.106237779584722</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.579137227174481</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.562496582708492</v>
+      </c>
+      <c r="J80" t="n">
+        <v>-0.1597533206312</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.262796155967095</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>129</v>
+      </c>
+      <c r="B81" t="s">
+        <v>130</v>
+      </c>
+      <c r="C81" t="s">
+        <v>121</v>
+      </c>
+      <c r="D81" t="s">
+        <v>131</v>
+      </c>
+      <c r="E81" t="s">
+        <v>130</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.00695734556971642</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.160923289936451</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.0432339257571972</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.965515061518786</v>
+      </c>
+      <c r="J81" t="n">
+        <v>-0.310041291492531</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.322455258998638</v>
       </c>
     </row>
   </sheetData>
@@ -3950,7 +4044,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -4612,7 +4706,7 @@
         <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F20" t="n">
         <v>-0.0441210033431255</v>
@@ -4635,7 +4729,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -4670,7 +4764,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -4705,7 +4799,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -4717,7 +4811,7 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F23" t="n">
         <v>-0.295746289867655</v>
@@ -4740,7 +4834,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -4752,7 +4846,7 @@
         <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="F24" t="n">
         <v>0.0620487422425999</v>
@@ -4775,7 +4869,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -4810,7 +4904,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -4845,7 +4939,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
@@ -4857,7 +4951,7 @@
         <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F27" t="n">
         <v>0.200926829762536</v>
@@ -4880,7 +4974,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
@@ -4915,7 +5009,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
@@ -4950,13 +5044,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
@@ -4985,13 +5079,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
@@ -5020,13 +5114,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
         <v>16</v>
@@ -5055,13 +5149,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
@@ -5090,13 +5184,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
@@ -5125,13 +5219,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
         <v>23</v>
@@ -5160,13 +5254,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
         <v>25</v>
@@ -5195,13 +5289,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
         <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D37" t="s">
         <v>27</v>
@@ -5230,13 +5324,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
         <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D38" t="s">
         <v>30</v>
@@ -5265,13 +5359,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D39" t="s">
         <v>32</v>
@@ -5300,13 +5394,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
         <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D40" t="s">
         <v>34</v>
@@ -5335,13 +5429,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
         <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D41" t="s">
         <v>36</v>
@@ -5370,13 +5464,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
         <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D42" t="s">
         <v>39</v>
@@ -5405,13 +5499,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D43" t="s">
         <v>41</v>
@@ -5440,13 +5534,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D44" t="s">
         <v>43</v>
@@ -5475,13 +5569,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D45" t="s">
         <v>46</v>
@@ -5510,13 +5604,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D46" t="s">
         <v>48</v>
@@ -5545,13 +5639,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B47" t="s">
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D47" t="s">
         <v>50</v>
@@ -5580,13 +5674,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
@@ -5615,13 +5709,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B49" t="s">
         <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D49" t="s">
         <v>20</v>
@@ -5650,13 +5744,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B50" t="s">
         <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D50" t="s">
         <v>29</v>
@@ -5685,13 +5779,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B51" t="s">
         <v>38</v>
       </c>
       <c r="C51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D51" t="s">
         <v>38</v>
@@ -5716,13 +5810,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B52" t="s">
         <v>45</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D52" t="s">
         <v>45</v>
@@ -5747,13 +5841,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53" t="s">
         <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D53" t="s">
         <v>45</v>
@@ -5782,13 +5876,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D54" t="s">
         <v>55</v>
@@ -5813,13 +5907,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55" t="s">
         <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D55" t="s">
         <v>0</v>
@@ -5848,13 +5942,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D56" t="s">
         <v>0</v>
@@ -5883,13 +5977,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B57" t="s">
         <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D57" t="s">
         <v>0</v>
@@ -5918,13 +6012,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B58" t="s">
         <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D58" t="s">
         <v>0</v>
@@ -5953,13 +6047,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B59" t="s">
         <v>23</v>
       </c>
       <c r="C59" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D59" t="s">
         <v>0</v>
@@ -5988,13 +6082,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B60" t="s">
         <v>25</v>
       </c>
       <c r="C60" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D60" t="s">
         <v>0</v>
@@ -6023,13 +6117,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B61" t="s">
         <v>27</v>
       </c>
       <c r="C61" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D61" t="s">
         <v>0</v>
@@ -6058,13 +6152,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B62" t="s">
         <v>30</v>
       </c>
       <c r="C62" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D62" t="s">
         <v>0</v>
@@ -6093,13 +6187,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B63" t="s">
         <v>32</v>
       </c>
       <c r="C63" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D63" t="s">
         <v>0</v>
@@ -6128,13 +6222,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B64" t="s">
         <v>34</v>
       </c>
       <c r="C64" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D64" t="s">
         <v>0</v>
@@ -6163,13 +6257,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B65" t="s">
         <v>36</v>
       </c>
       <c r="C65" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D65" t="s">
         <v>0</v>
@@ -6198,13 +6292,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B66" t="s">
         <v>39</v>
       </c>
       <c r="C66" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D66" t="s">
         <v>0</v>
@@ -6233,13 +6327,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B67" t="s">
         <v>41</v>
       </c>
       <c r="C67" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D67" t="s">
         <v>0</v>
@@ -6268,13 +6362,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B68" t="s">
         <v>43</v>
       </c>
       <c r="C68" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D68" t="s">
         <v>0</v>
@@ -6303,13 +6397,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B69" t="s">
         <v>46</v>
       </c>
       <c r="C69" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D69" t="s">
         <v>0</v>
@@ -6338,13 +6432,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B70" t="s">
         <v>48</v>
       </c>
       <c r="C70" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D70" t="s">
         <v>0</v>
@@ -6373,13 +6467,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B71" t="s">
         <v>50</v>
       </c>
       <c r="C71" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D71" t="s">
         <v>0</v>
@@ -6408,13 +6502,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B72" t="s">
         <v>55</v>
       </c>
       <c r="C72" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D72" t="s">
         <v>0</v>
@@ -6439,13 +6533,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B73" t="s">
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D73" t="s">
         <v>0</v>
@@ -6470,13 +6564,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B74" t="s">
         <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D74" t="s">
         <v>0</v>
@@ -6501,13 +6595,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B75" t="s">
         <v>29</v>
       </c>
       <c r="C75" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D75" t="s">
         <v>0</v>
@@ -6532,13 +6626,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B76" t="s">
         <v>38</v>
       </c>
       <c r="C76" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D76" t="s">
         <v>0</v>
@@ -6563,13 +6657,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B77" t="s">
         <v>45</v>
       </c>
       <c r="C77" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D77" t="s">
         <v>0</v>
@@ -6594,19 +6688,19 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B78" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C78" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D78" t="s">
+        <v>122</v>
+      </c>
+      <c r="E78" t="s">
         <v>120</v>
-      </c>
-      <c r="E78" t="s">
-        <v>118</v>
       </c>
       <c r="F78" t="n">
         <v>0.0821188925677479</v>
@@ -6629,19 +6723,19 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>123</v>
+      </c>
+      <c r="B79" t="s">
+        <v>124</v>
+      </c>
+      <c r="C79" t="s">
         <v>121</v>
       </c>
-      <c r="B79" t="s">
-        <v>122</v>
-      </c>
-      <c r="C79" t="s">
-        <v>119</v>
-      </c>
       <c r="D79" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E79" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F79" t="n">
         <v>-0.05942336443714</v>
@@ -6660,6 +6754,76 @@
       </c>
       <c r="K79" t="n">
         <v>-0.0161427523533873</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>126</v>
+      </c>
+      <c r="B80" t="s">
+        <v>127</v>
+      </c>
+      <c r="C80" t="s">
+        <v>121</v>
+      </c>
+      <c r="D80" t="s">
+        <v>128</v>
+      </c>
+      <c r="E80" t="s">
+        <v>127</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.0379978892246223</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.0671957803849359</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.565480287704803</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.571747128395859</v>
+      </c>
+      <c r="J80" t="n">
+        <v>-0.093703420242915</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.16969919869216</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>129</v>
+      </c>
+      <c r="B81" t="s">
+        <v>130</v>
+      </c>
+      <c r="C81" t="s">
+        <v>121</v>
+      </c>
+      <c r="D81" t="s">
+        <v>131</v>
+      </c>
+      <c r="E81" t="s">
+        <v>130</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.00262537780545995</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.0608675920720602</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.0431326049887403</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.965595828453609</v>
+      </c>
+      <c r="J81" t="n">
+        <v>-0.116672910481454</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.121923666092374</v>
       </c>
     </row>
   </sheetData>
@@ -6681,61 +6845,61 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="H1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="I1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="J1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="K1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="L1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="M1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="N1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="O1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="P1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="Q1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="R1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="S1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="T1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2">
@@ -6797,7 +6961,7 @@
         <v>0.158483223715995</v>
       </c>
       <c r="T2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3">
@@ -6859,7 +7023,7 @@
         <v>0.176324692066727</v>
       </c>
       <c r="T3" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4">
@@ -6921,7 +7085,7 @@
         <v>0.157459309150594</v>
       </c>
       <c r="T4" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5">
@@ -6983,7 +7147,7 @@
         <v>0.0017393363924291</v>
       </c>
       <c r="T5" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6">
@@ -7045,7 +7209,7 @@
         <v>0.00144086763522575</v>
       </c>
       <c r="T6" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7">
@@ -7107,7 +7271,7 @@
         <v>0.00132663554329037</v>
       </c>
       <c r="T7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8">
@@ -7169,7 +7333,7 @@
         <v>0.00103299847166305</v>
       </c>
       <c r="T8" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9">
@@ -7231,7 +7395,7 @@
         <v>0.0153815632724674</v>
       </c>
       <c r="T9" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10">
@@ -7293,7 +7457,7 @@
         <v>0.0287656365614772</v>
       </c>
       <c r="T10" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
@@ -7355,7 +7519,7 @@
         <v>0.023503505885306</v>
       </c>
       <c r="T11" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12">
@@ -7417,7 +7581,7 @@
         <v>0.0165942530773336</v>
       </c>
       <c r="T12" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13">
@@ -7479,7 +7643,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
@@ -7541,7 +7705,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15">
@@ -7603,7 +7767,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16">
@@ -7665,7 +7829,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17">
@@ -7727,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
@@ -7789,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19">
@@ -7851,7 +8015,7 @@
         <v>0.25</v>
       </c>
       <c r="T19" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -7873,64 +8037,64 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="H1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="I1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="J1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="K1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="M1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="N1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="O1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="P1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="Q1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="R1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="S1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="T1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="U1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2">
@@ -7938,7 +8102,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C2" t="n">
         <v>0.00835796868414018</v>
@@ -7995,7 +8159,7 @@
         <v>0.0353037585325251</v>
       </c>
       <c r="U2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3">
@@ -8003,7 +8167,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C3" t="n">
         <v>-0.00922372204228239</v>
@@ -8060,7 +8224,7 @@
         <v>0.00858655053682278</v>
       </c>
       <c r="U3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4">
@@ -8068,7 +8232,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C4" t="n">
         <v>0.0372103367052388</v>
@@ -8125,7 +8289,7 @@
         <v>-0.0139681848902392</v>
       </c>
       <c r="U4" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5">
@@ -8133,7 +8297,7 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C5" t="n">
         <v>-0.215644742304774</v>
@@ -8190,7 +8354,7 @@
         <v>-0.0120943659782279</v>
       </c>
       <c r="U5" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6">
@@ -8198,7 +8362,7 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C6" t="n">
         <v>0.152280652708336</v>
@@ -8255,7 +8419,7 @@
         <v>-0.00735802739853961</v>
       </c>
       <c r="U6" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7">
@@ -8263,7 +8427,7 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C7" t="n">
         <v>0.174394813778298</v>
@@ -8320,7 +8484,7 @@
         <v>0.0179041336874788</v>
       </c>
       <c r="U7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8">
@@ -8328,7 +8492,7 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C8" t="n">
         <v>0.158118657315589</v>
@@ -8385,7 +8549,7 @@
         <v>-0.0439324067556868</v>
       </c>
       <c r="U8" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9">
@@ -8393,7 +8557,7 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C9" t="n">
         <v>-0.222243085826592</v>
@@ -8450,7 +8614,7 @@
         <v>-0.06863600114229</v>
       </c>
       <c r="U9" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10">
@@ -8458,7 +8622,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C10" t="n">
         <v>0.160384511231831</v>
@@ -8515,7 +8679,7 @@
         <v>0.0614710498290552</v>
       </c>
       <c r="U10" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11">
@@ -8523,7 +8687,7 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C11" t="n">
         <v>-0.213217601638556</v>
@@ -8580,7 +8744,7 @@
         <v>-0.0220242159444775</v>
       </c>
       <c r="U11" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12">
@@ -8588,7 +8752,7 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C12" t="n">
         <v>0.0502063997494433</v>
@@ -8645,7 +8809,7 @@
         <v>-0.0565350814797004</v>
       </c>
       <c r="U12" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13">
@@ -8653,7 +8817,7 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C13" t="n">
         <v>0.0409363287763376</v>
@@ -8710,7 +8874,7 @@
         <v>-0.0221893491124256</v>
       </c>
       <c r="U13" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14">
@@ -8718,7 +8882,7 @@
         <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C14" t="n">
         <v>0.0184519063303344</v>
@@ -8775,7 +8939,7 @@
         <v>-0.0162721893491122</v>
       </c>
       <c r="U14" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15">
@@ -8783,7 +8947,7 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C15" t="n">
         <v>-0.0428451565866313</v>
@@ -8840,7 +9004,7 @@
         <v>-0.00147928994082847</v>
       </c>
       <c r="U15" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16">
@@ -8848,7 +9012,7 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C16" t="n">
         <v>0.0135466152771245</v>
@@ -8905,7 +9069,7 @@
         <v>-0.0355029585798816</v>
       </c>
       <c r="U16" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17">
@@ -8913,7 +9077,7 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C17" t="n">
         <v>-0.0805770643720025</v>
@@ -8970,7 +9134,7 @@
         <v>-0.0236686390532546</v>
       </c>
       <c r="U17" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18">
@@ -8978,7 +9142,7 @@
         <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C18" t="n">
         <v>-0.145903294626203</v>
@@ -9035,7 +9199,7 @@
         <v>-0.0340236686390534</v>
       </c>
       <c r="U18" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19">
@@ -9043,7 +9207,7 @@
         <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C19" t="n">
         <v>0.0353037585325251</v>
@@ -9100,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -9122,39 +9286,39 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6">
@@ -9162,407 +9326,407 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B11" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B12" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B14" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B15" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B16" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B17" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B18" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B19" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B21" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B24" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B26" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B27" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B28" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B29" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B30" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B31" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B32" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B33" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B34" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B35" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B36" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B37" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B38" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B39" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B40" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B41" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B42" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B43" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B44" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B45" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B46" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="B47" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B48" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B49" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B50" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="B51" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B52" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B53" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B54" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B55" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B56" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
